--- a/out/csv/factoranalysis/alpha.xlsx
+++ b/out/csv/factoranalysis/alpha.xlsx
@@ -6,16 +6,22 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="alpha_sec" sheetId="1" r:id="rId2"/>
+    <sheet name="alpha_parent" sheetId="2" r:id="rId4"/>
+    <sheet name="alpha_staff" sheetId="3" r:id="rId5"/>
+    <sheet name="alpha_school_climate" sheetId="4" r:id="rId6"/>
+    <sheet name="alpha_teacher_quality" sheetId="5" r:id="rId7"/>
+    <sheet name="alpha_student_support" sheetId="6" r:id="rId8"/>
+    <sheet name="alpha_student_motivation" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Variable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <si>
+    <t>Secondary Survey QOI</t>
   </si>
   <si>
     <t>Cronbach's Alpha</t>
@@ -27,10 +33,409 @@
     <t>Item Test Correlation</t>
   </si>
   <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
     <t>Inter-Item Correlation</t>
   </si>
   <si>
-    <t>Alpha excluding Item</t>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>qoi22mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi23mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi24mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi25mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi26mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi27mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi28mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi29mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi30mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi31mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi32mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi33mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi34mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi35mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi36mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi37mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi38mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi39mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi40mean_pooled</t>
+  </si>
+  <si>
+    <t>Parent Survey QOI</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Test Correlation</t>
+  </si>
+  <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
+    <t>Inter-Item Correlation</t>
+  </si>
+  <si>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>qoi9mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi15mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi16mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi17mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi27mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi30mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi31mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi32mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi33mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi34mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi64mean_pooled</t>
+  </si>
+  <si>
+    <t>Staff Survey QOI</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Test Correlation</t>
+  </si>
+  <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
+    <t>Inter-Item Correlation</t>
+  </si>
+  <si>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>qoi10mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi20mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi24mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi41mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi44mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi64mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi87mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi98mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi103mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi104mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi105mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi109mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi111mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi112mean_pooled</t>
+  </si>
+  <si>
+    <t>qoi128mean_pooled</t>
+  </si>
+  <si>
+    <t>School Climate Questions</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Test Correlation</t>
+  </si>
+  <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
+    <t>Inter-Item Correlation</t>
+  </si>
+  <si>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>parentqoi9mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi16mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi17mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi27mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi22mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi23mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi24mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi25mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi26mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi27mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi28mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi29mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi30mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi20mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi24mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi41mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi44mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi64mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi87mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi98mean_pooled</t>
+  </si>
+  <si>
+    <t>Teacher and Staff Quality Questions</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Test Correlation</t>
+  </si>
+  <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
+    <t>Inter-Item Correlation</t>
+  </si>
+  <si>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>parentqoi30mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi31mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi32mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi33mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi34mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi35mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi36mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi37mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi38mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi39mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi40mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi103mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi104mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi105mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi109mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi111mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi112mean_pooled</t>
+  </si>
+  <si>
+    <t>Student Support Questions</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Test Correlation</t>
+  </si>
+  <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
+    <t>Inter-Item Correlation</t>
+  </si>
+  <si>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>parentqoi15mean_pooled</t>
+  </si>
+  <si>
+    <t>parentqoi64mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi10mean_pooled</t>
+  </si>
+  <si>
+    <t>staffqoi128mean_pooled</t>
+  </si>
+  <si>
+    <t>Student Motivation Questions</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Test Correlation</t>
+  </si>
+  <si>
+    <t>Item Rest Correlation</t>
+  </si>
+  <si>
+    <t>Inter-Item Correlation</t>
+  </si>
+  <si>
+    <t>Alpha Excluding Item</t>
+  </si>
+  <si>
+    <t>secqoi31mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi32mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi33mean_pooled</t>
+  </si>
+  <si>
+    <t>secqoi34mean_pooled</t>
   </si>
 </sst>
 </file>
@@ -74,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -97,217 +502,1778 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5">
+        <v>0.67384966271040858</v>
+      </c>
+      <c r="C5">
         <v>0.63431174664038614</v>
       </c>
+      <c r="D5">
+        <v>0.6265373756218664</v>
+      </c>
+      <c r="E5">
+        <v>0.96794624626535419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.86197013216961471</v>
+      </c>
+      <c r="C6">
+        <v>0.84289947572046053</v>
+      </c>
+      <c r="D6">
+        <v>0.60763465837665775</v>
+      </c>
+      <c r="E6">
+        <v>0.96536869883806586</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.89969576756735381</v>
+      </c>
+      <c r="C7">
+        <v>0.88542814070338105</v>
+      </c>
+      <c r="D7">
+        <v>0.603798294219002</v>
+      </c>
+      <c r="E7">
+        <v>0.96482762586161563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.78754366815957821</v>
+      </c>
+      <c r="C8">
+        <v>0.75985035425138836</v>
+      </c>
+      <c r="D8">
+        <v>0.61507400215743524</v>
+      </c>
+      <c r="E8">
+        <v>0.96640037291319281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.8367938738981705</v>
+      </c>
+      <c r="C9">
+        <v>0.81461390848602155</v>
+      </c>
+      <c r="D9">
+        <v>0.61005733200912982</v>
+      </c>
+      <c r="E9">
+        <v>0.96570719043936082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.59220496973874492</v>
+      </c>
+      <c r="C10">
+        <v>0.54579636489974725</v>
+      </c>
+      <c r="D10">
+        <v>0.63407794580859322</v>
+      </c>
+      <c r="E10">
+        <v>0.96893522746463168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.85067371738204045</v>
+      </c>
+      <c r="C11">
+        <v>0.83034433052947276</v>
+      </c>
+      <c r="D11">
+        <v>0.60893185937426653</v>
+      </c>
+      <c r="E11">
+        <v>0.96555024690415014</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.88140327440091348</v>
+      </c>
+      <c r="C12">
+        <v>0.8649158179899159</v>
+      </c>
+      <c r="D12">
+        <v>0.60593811596555236</v>
+      </c>
+      <c r="E12">
+        <v>0.96513019217226526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.84665427529598902</v>
+      </c>
+      <c r="C13">
+        <v>0.82579285798002744</v>
+      </c>
+      <c r="D13">
+        <v>0.60934547974864384</v>
+      </c>
+      <c r="E13">
+        <v>0.96560798638248768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.76892418065706269</v>
+      </c>
+      <c r="C14">
+        <v>0.73915531924895717</v>
+      </c>
+      <c r="D14">
+        <v>0.61692078999891942</v>
+      </c>
+      <c r="E14">
+        <v>0.96665296247523591</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.69760203544251609</v>
+      </c>
+      <c r="C15">
+        <v>0.6602800775253207</v>
+      </c>
+      <c r="D15">
+        <v>0.62407773640826769</v>
+      </c>
+      <c r="E15">
+        <v>0.96761892906674885</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.79056070175701443</v>
+      </c>
+      <c r="C16">
+        <v>0.76303359238509039</v>
+      </c>
+      <c r="D16">
+        <v>0.61481318267117047</v>
+      </c>
+      <c r="E16">
+        <v>0.96636458840239559</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.74766781330636523</v>
+      </c>
+      <c r="C17">
+        <v>0.71552267835136341</v>
+      </c>
+      <c r="D17">
+        <v>0.61916127856592984</v>
+      </c>
+      <c r="E17">
+        <v>0.96695755204568989</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0.7829260442621222</v>
+      </c>
+      <c r="C18">
+        <v>0.75460665886248735</v>
+      </c>
+      <c r="D18">
+        <v>0.61561049137499191</v>
+      </c>
+      <c r="E18">
+        <v>0.96647389237601011</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.84750759247927943</v>
+      </c>
+      <c r="C19">
+        <v>0.82650365916182511</v>
+      </c>
+      <c r="D19">
+        <v>0.60909657812939022</v>
+      </c>
+      <c r="E19">
+        <v>0.96557324944413592</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.7051766244255302</v>
+      </c>
+      <c r="C20">
+        <v>0.66890971224185891</v>
+      </c>
+      <c r="D20">
+        <v>0.6234062056288171</v>
+      </c>
+      <c r="E20">
+        <v>0.96752915476754531</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.87861496711125486</v>
+      </c>
+      <c r="C21">
+        <v>0.86176119179714616</v>
+      </c>
+      <c r="D21">
+        <v>0.60592824259472866</v>
+      </c>
+      <c r="E21">
+        <v>0.96512880057151873</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0.82650482948629489</v>
+      </c>
+      <c r="C22">
+        <v>0.80315955811896256</v>
+      </c>
+      <c r="D22">
+        <v>0.61129563466298009</v>
+      </c>
+      <c r="E22">
+        <v>0.96587925865625124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.85432809472797433</v>
+      </c>
+      <c r="C23">
+        <v>0.83434255409630886</v>
+      </c>
+      <c r="D23">
+        <v>0.60857120780091123</v>
+      </c>
+      <c r="E23">
+        <v>0.96549984321617843</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0.95102479614375557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0.86015108376880034</v>
+      </c>
       <c r="C5">
-        <v>0.6265373756218664</v>
+        <v>0.82270200870187027</v>
       </c>
       <c r="D5">
-        <v>0.96794624626535419</v>
+        <v>0.63027153247473977</v>
+      </c>
+      <c r="E5">
+        <v>0.9445887475360315</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
       <c r="B6">
-        <v>0.84289947572046053</v>
+        <v>0.77252039249811333</v>
       </c>
       <c r="C6">
-        <v>0.60763465837665775</v>
+        <v>0.71719908937556898</v>
       </c>
       <c r="D6">
-        <v>0.96536869883806586</v>
+        <v>0.64881686792410909</v>
+      </c>
+      <c r="E6">
+        <v>0.94865257092129796</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
       <c r="B7">
-        <v>0.88542814070338094</v>
+        <v>0.89193255015516992</v>
       </c>
       <c r="C7">
-        <v>0.603798294219002</v>
+        <v>0.86197437651585673</v>
       </c>
       <c r="D7">
-        <v>0.96482762586161563</v>
+        <v>0.62286138872150798</v>
+      </c>
+      <c r="E7">
+        <v>0.94290754741954108</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
       <c r="B8">
-        <v>0.75985035425138836</v>
+        <v>0.86750038872597401</v>
       </c>
       <c r="C8">
-        <v>0.61507400215743524</v>
+        <v>0.83328770745814984</v>
       </c>
       <c r="D8">
-        <v>0.96640037291319281</v>
+        <v>0.62884366890461685</v>
+      </c>
+      <c r="E8">
+        <v>0.94426741544523185</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
       <c r="B9">
-        <v>0.81461390848602189</v>
+        <v>0.84593709825894803</v>
       </c>
       <c r="C9">
-        <v>0.61005733200912982</v>
+        <v>0.80701081860383661</v>
       </c>
       <c r="D9">
-        <v>0.96570719043936082</v>
+        <v>0.63351983066442485</v>
+      </c>
+      <c r="E9">
+        <v>0.94531516684228967</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
       <c r="B10">
-        <v>0.54579636489974748</v>
+        <v>0.87824215529759608</v>
       </c>
       <c r="C10">
-        <v>0.63407794580859322</v>
+        <v>0.84683812145867399</v>
       </c>
       <c r="D10">
-        <v>0.96893522746463168</v>
+        <v>0.62716290119612639</v>
+      </c>
+      <c r="E10">
+        <v>0.94388757612898122</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
       <c r="B11">
-        <v>0.83034433052947276</v>
+        <v>0.90336958575122461</v>
       </c>
       <c r="C11">
-        <v>0.60893185937426653</v>
+        <v>0.87701329892203361</v>
       </c>
       <c r="D11">
-        <v>0.96555024690415014</v>
+        <v>0.62110949828274176</v>
+      </c>
+      <c r="E11">
+        <v>0.94250510830321854</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
       <c r="B12">
-        <v>0.86491581798991579</v>
+        <v>0.77570861105217825</v>
       </c>
       <c r="C12">
-        <v>0.60593811596555236</v>
+        <v>0.72193238350350253</v>
       </c>
       <c r="D12">
-        <v>0.96513019217226526</v>
+        <v>0.64522156606580783</v>
+      </c>
+      <c r="E12">
+        <v>0.94788030825294212</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
       <c r="B13">
-        <v>0.82579285798002755</v>
+        <v>0.81143201845525037</v>
       </c>
       <c r="C13">
-        <v>0.60934547974864373</v>
+        <v>0.76321626553205468</v>
       </c>
       <c r="D13">
-        <v>0.96560798638248768</v>
+        <v>0.64026470914162092</v>
+      </c>
+      <c r="E13">
+        <v>0.94680346799061388</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
       <c r="B14">
-        <v>0.73915531924895728</v>
+        <v>0.8733092658870969</v>
       </c>
       <c r="C14">
-        <v>0.61692078999891942</v>
+        <v>0.84061102159150114</v>
       </c>
       <c r="D14">
-        <v>0.96665296247523591</v>
+        <v>0.62797030224747852</v>
+      </c>
+      <c r="E14">
+        <v>0.94407025757045038</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
       <c r="B15">
-        <v>0.6602800775253207</v>
+        <v>0.5423481886211895</v>
       </c>
       <c r="C15">
-        <v>0.62407773640826769</v>
+        <v>0.45164239157379366</v>
       </c>
       <c r="D15">
-        <v>0.96761892906674885</v>
+        <v>0.69614332154870284</v>
+      </c>
+      <c r="E15">
+        <v>0.95817693679300886</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.87515094962407913</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>0.47896380950432971</v>
+      </c>
+      <c r="C5">
+        <v>0.37849386322837969</v>
+      </c>
+      <c r="D5">
+        <v>0.3316882274735744</v>
+      </c>
+      <c r="E5">
+        <v>0.87418703953245447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>0.46735223102143153</v>
+      </c>
+      <c r="C6">
+        <v>0.36674713044044338</v>
+      </c>
+      <c r="D6">
+        <v>0.33273489092305741</v>
+      </c>
+      <c r="E6">
+        <v>0.87470502384347726</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0.74943546030706676</v>
+      </c>
+      <c r="C7">
+        <v>0.69084662305941824</v>
+      </c>
+      <c r="D7">
+        <v>0.30637705773297869</v>
+      </c>
+      <c r="E7">
+        <v>0.86079939420972473</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>0.63539393110252551</v>
+      </c>
+      <c r="C8">
+        <v>0.5538552788455231</v>
+      </c>
+      <c r="D8">
+        <v>0.31481207471247097</v>
+      </c>
+      <c r="E8">
+        <v>0.86545306627807572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>0.72263248077078257</v>
+      </c>
+      <c r="C9">
+        <v>0.65457955112989186</v>
+      </c>
+      <c r="D9">
+        <v>0.30488603959449589</v>
+      </c>
+      <c r="E9">
+        <v>0.85995540092318279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>0.72873671021102449</v>
+      </c>
+      <c r="C10">
+        <v>0.66680324364582644</v>
+      </c>
+      <c r="D10">
+        <v>0.30802143603684895</v>
+      </c>
+      <c r="E10">
+        <v>0.86172261582437693</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>0.67599407796180422</v>
+      </c>
+      <c r="C11">
+        <v>0.60256319654056389</v>
+      </c>
+      <c r="D11">
+        <v>0.31077245417395866</v>
+      </c>
+      <c r="E11">
+        <v>0.86324963980095393</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>0.48118091480906211</v>
+      </c>
+      <c r="C12">
+        <v>0.38219703891562107</v>
+      </c>
+      <c r="D12">
+        <v>0.33062329823987641</v>
+      </c>
+      <c r="E12">
+        <v>0.87365728501591622</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>0.5715165733102443</v>
+      </c>
+      <c r="C13">
+        <v>0.48104766754264972</v>
+      </c>
+      <c r="D13">
+        <v>0.3229654448708798</v>
+      </c>
+      <c r="E13">
+        <v>0.86976475111077955</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.57927557655249862</v>
+      </c>
+      <c r="C14">
+        <v>0.4902170899130967</v>
+      </c>
+      <c r="D14">
+        <v>0.32203306190462239</v>
+      </c>
+      <c r="E14">
+        <v>0.86928061043588367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>0.62440360123934358</v>
+      </c>
+      <c r="C15">
+        <v>0.54130969501218196</v>
+      </c>
+      <c r="D15">
+        <v>0.31694704429058296</v>
+      </c>
+      <c r="E15">
+        <v>0.86659933763782959</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
       <c r="B16">
-        <v>0.7630335923850905</v>
+        <v>0.61179471002429764</v>
       </c>
       <c r="C16">
-        <v>0.61481318267117047</v>
+        <v>0.52792077437982166</v>
       </c>
       <c r="D16">
-        <v>0.96636458840239559</v>
+        <v>0.31836261727077447</v>
+      </c>
+      <c r="E16">
+        <v>0.86735253616435926</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
       <c r="B17">
-        <v>0.71552267835136329</v>
+        <v>0.61389448600636509</v>
       </c>
       <c r="C17">
-        <v>0.61916127856592984</v>
+        <v>0.52979429519063292</v>
       </c>
       <c r="D17">
-        <v>0.96695755204568989</v>
+        <v>0.31800105746960994</v>
+      </c>
+      <c r="E17">
+        <v>0.86716067074908598</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
       <c r="B18">
-        <v>0.75460665886248735</v>
+        <v>0.74553883814473765</v>
       </c>
       <c r="C18">
-        <v>0.61561049137499191</v>
+        <v>0.68345484196096618</v>
       </c>
       <c r="D18">
-        <v>0.96647389237601011</v>
+        <v>0.30398268448104288</v>
+      </c>
+      <c r="E18">
+        <v>0.85944084094686224</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
       <c r="B19">
-        <v>0.82650365916182522</v>
+        <v>0.43587204426775983</v>
       </c>
       <c r="C19">
-        <v>0.60909657812939022</v>
+        <v>0.32736581126559283</v>
       </c>
       <c r="D19">
-        <v>0.96557324944413592</v>
+        <v>0.33589982485666176</v>
+      </c>
+      <c r="E19">
+        <v>0.87625534185010889</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E24"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>0.95371888175654818</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>0.61942627793058169</v>
+      </c>
+      <c r="C5">
+        <v>0.56971978603616702</v>
+      </c>
+      <c r="D5">
+        <v>0.51493526340476303</v>
+      </c>
+      <c r="E5">
+        <v>0.95276340998603859</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>0.63188559236892305</v>
+      </c>
+      <c r="C6">
+        <v>0.58519835869124615</v>
+      </c>
+      <c r="D6">
+        <v>0.51445088266016248</v>
+      </c>
+      <c r="E6">
+        <v>0.95267605915511477</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>0.53535546191864669</v>
+      </c>
+      <c r="C7">
+        <v>0.47987377388017888</v>
+      </c>
+      <c r="D7">
+        <v>0.52038603264278049</v>
+      </c>
+      <c r="E7">
+        <v>0.95373624521179978</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>0.58842123483867803</v>
+      </c>
+      <c r="C8">
+        <v>0.53724264426537804</v>
+      </c>
+      <c r="D8">
+        <v>0.51706817655860371</v>
+      </c>
+      <c r="E8">
+        <v>0.95314629093752712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>0.54962748744447865</v>
+      </c>
+      <c r="C9">
+        <v>0.4662817938242893</v>
+      </c>
+      <c r="D9">
+        <v>0.52812611175134005</v>
+      </c>
+      <c r="E9">
+        <v>0.95508644954574062</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>0.80807060707673362</v>
+      </c>
+      <c r="C10">
+        <v>0.76834850564088775</v>
+      </c>
+      <c r="D10">
+        <v>0.49930856765969828</v>
+      </c>
+      <c r="E10">
+        <v>0.94986846414868797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>0.84257895993665466</v>
+      </c>
+      <c r="C11">
+        <v>0.81094797065286295</v>
+      </c>
+      <c r="D11">
+        <v>0.49554190028368067</v>
+      </c>
+      <c r="E11">
+        <v>0.94914610893719065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>0.81502858064928552</v>
+      </c>
+      <c r="C12">
+        <v>0.7753435810713587</v>
+      </c>
+      <c r="D12">
+        <v>0.49802722352513312</v>
+      </c>
+      <c r="E12">
+        <v>0.94962383671483186</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>0.83684713502088148</v>
+      </c>
+      <c r="C13">
+        <v>0.79981728570312183</v>
+      </c>
+      <c r="D13">
+        <v>0.49474577648790324</v>
+      </c>
+      <c r="E13">
+        <v>0.94899216583799106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>0.79101212857643521</v>
+      </c>
+      <c r="C14">
+        <v>0.74769052703892414</v>
+      </c>
+      <c r="D14">
+        <v>0.49909348476918308</v>
+      </c>
+      <c r="E14">
+        <v>0.94982748060151256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>0.77415109601581622</v>
+      </c>
+      <c r="C15">
+        <v>0.72539290004247203</v>
+      </c>
+      <c r="D15">
+        <v>0.50172984926939912</v>
+      </c>
+      <c r="E15">
+        <v>0.95032765114441875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>0.85640462551799401</v>
+      </c>
+      <c r="C16">
+        <v>0.82455604187558185</v>
+      </c>
+      <c r="D16">
+        <v>0.49312899731345988</v>
+      </c>
+      <c r="E16">
+        <v>0.94867816124582127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>0.85012488922044849</v>
+      </c>
+      <c r="C17">
+        <v>0.81779308989628818</v>
+      </c>
+      <c r="D17">
+        <v>0.49424809516178891</v>
+      </c>
+      <c r="E17">
+        <v>0.94889570483952257</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>0.51846534062661642</v>
+      </c>
+      <c r="C18">
+        <v>0.45504579026192116</v>
+      </c>
+      <c r="D18">
+        <v>0.52665581249455318</v>
+      </c>
+      <c r="E18">
+        <v>0.95483272785632922</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>0.68937972704310002</v>
+      </c>
+      <c r="C19">
+        <v>0.64562149446632333</v>
+      </c>
+      <c r="D19">
+        <v>0.51018144968635293</v>
+      </c>
+      <c r="E19">
+        <v>0.95189966109348689</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
       <c r="B20">
-        <v>0.66890971224185891</v>
+        <v>0.68440765118951008</v>
       </c>
       <c r="C20">
-        <v>0.6234062056288171</v>
+        <v>0.63579026134941818</v>
       </c>
       <c r="D20">
-        <v>0.96752915476754531</v>
+        <v>0.51111075315381593</v>
+      </c>
+      <c r="E20">
+        <v>0.95206965140465616</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
       <c r="B21">
-        <v>0.86176119179714616</v>
+        <v>0.78210580352402526</v>
       </c>
       <c r="C21">
-        <v>0.60592824259472866</v>
+        <v>0.7456458827618182</v>
       </c>
       <c r="D21">
-        <v>0.96512880057151873</v>
+        <v>0.50420106325045799</v>
+      </c>
+      <c r="E21">
+        <v>0.95079221138335435</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
       <c r="B22">
-        <v>0.80315955811896245</v>
+        <v>0.78239643997217834</v>
       </c>
       <c r="C22">
-        <v>0.61129563466298009</v>
+        <v>0.75108697962007476</v>
       </c>
       <c r="D22">
-        <v>0.96587925865625124</v>
+        <v>0.50430565265372629</v>
+      </c>
+      <c r="E22">
+        <v>0.95081178254758358</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
       <c r="B23">
-        <v>0.83434255409630886</v>
+        <v>0.71084470300718816</v>
       </c>
       <c r="C23">
-        <v>0.60857120780091123</v>
+        <v>0.66825022215785412</v>
       </c>
       <c r="D23">
-        <v>0.96549984321617843</v>
+        <v>0.50954998724488387</v>
+      </c>
+      <c r="E23">
+        <v>0.95178383351928675</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>0.70538717816617924</v>
+      </c>
+      <c r="C24">
+        <v>0.66027540150804109</v>
+      </c>
+      <c r="D24">
+        <v>0.50994970845619481</v>
+      </c>
+      <c r="E24">
+        <v>0.9518571834261258</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>0.92513050712493694</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>0.64536501804688517</v>
+      </c>
+      <c r="C5">
+        <v>0.58572771881130481</v>
+      </c>
+      <c r="D5">
+        <v>0.42531574577305425</v>
+      </c>
+      <c r="E5">
+        <v>0.92212672110545446</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>0.58337007660522922</v>
+      </c>
+      <c r="C6">
+        <v>0.5135189575132223</v>
+      </c>
+      <c r="D6">
+        <v>0.42985864319447625</v>
+      </c>
+      <c r="E6">
+        <v>0.92344917160886619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>0.68939797410464976</v>
+      </c>
+      <c r="C7">
+        <v>0.63566916926599715</v>
+      </c>
+      <c r="D7">
+        <v>0.42182456817987452</v>
+      </c>
+      <c r="E7">
+        <v>0.92109371460858003</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>0.6211012964132907</v>
+      </c>
+      <c r="C8">
+        <v>0.55325279547594541</v>
+      </c>
+      <c r="D8">
+        <v>0.42651964453380387</v>
+      </c>
+      <c r="E8">
+        <v>0.92247955219055977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>0.63474841564211326</v>
+      </c>
+      <c r="C9">
+        <v>0.57225555774887504</v>
+      </c>
+      <c r="D9">
+        <v>0.42649184286661046</v>
+      </c>
+      <c r="E9">
+        <v>0.92247142368401935</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>0.83207996559210096</v>
+      </c>
+      <c r="C10">
+        <v>0.79285907235390363</v>
+      </c>
+      <c r="D10">
+        <v>0.39963799208871759</v>
+      </c>
+      <c r="E10">
+        <v>0.91416741585301597</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>0.85272144763608015</v>
+      </c>
+      <c r="C11">
+        <v>0.8183501814416283</v>
+      </c>
+      <c r="D11">
+        <v>0.39758463346647765</v>
+      </c>
+      <c r="E11">
+        <v>0.91349291983878078</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>0.79258254058979893</v>
+      </c>
+      <c r="C12">
+        <v>0.74175306974028055</v>
+      </c>
+      <c r="D12">
+        <v>0.40581525808337948</v>
+      </c>
+      <c r="E12">
+        <v>0.91616120310056193</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>0.85325801240704546</v>
+      </c>
+      <c r="C13">
+        <v>0.81778731959166095</v>
+      </c>
+      <c r="D13">
+        <v>0.39705175696736406</v>
+      </c>
+      <c r="E13">
+        <v>0.91331690205340554</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>0.84189071631299239</v>
+      </c>
+      <c r="C14">
+        <v>0.80177240503090963</v>
+      </c>
+      <c r="D14">
+        <v>0.39824250954317536</v>
+      </c>
+      <c r="E14">
+        <v>0.91370967044034501</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <v>0.8133968817903231</v>
+      </c>
+      <c r="C15">
+        <v>0.76779419544821792</v>
+      </c>
+      <c r="D15">
+        <v>0.40358654582806153</v>
+      </c>
+      <c r="E15">
+        <v>0.91544789936923265</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <v>0.44264130531226681</v>
+      </c>
+      <c r="C16">
+        <v>0.35061192552061826</v>
+      </c>
+      <c r="D16">
+        <v>0.44755037532698938</v>
+      </c>
+      <c r="E16">
+        <v>0.92837659593037158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>0.50537082562637337</v>
+      </c>
+      <c r="C17">
+        <v>0.42212882733911544</v>
+      </c>
+      <c r="D17">
+        <v>0.44227581365600271</v>
+      </c>
+      <c r="E17">
+        <v>0.92694338975327817</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>0.62792465974772205</v>
+      </c>
+      <c r="C18">
+        <v>0.55875162848322713</v>
+      </c>
+      <c r="D18">
+        <v>0.42925972504846915</v>
+      </c>
+      <c r="E18">
+        <v>0.92327621135095539</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19">
+        <v>0.5849700752992264</v>
+      </c>
+      <c r="C19">
+        <v>0.51072268269049492</v>
+      </c>
+      <c r="D19">
+        <v>0.43506319459412868</v>
+      </c>
+      <c r="E19">
+        <v>0.92493479738462669</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>0.49284334920923228</v>
+      </c>
+      <c r="C20">
+        <v>0.40801053288467065</v>
+      </c>
+      <c r="D20">
+        <v>0.44206174904881629</v>
+      </c>
+      <c r="E20">
+        <v>0.9268845964807515</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>0.68987218091697033</v>
+      </c>
+      <c r="C21">
+        <v>0.62828994249231795</v>
+      </c>
+      <c r="D21">
+        <v>0.42290360743390071</v>
+      </c>
+      <c r="E21">
+        <v>0.92141456523596688</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <v>0.70970299230189537</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>0.77526022961621621</v>
+      </c>
+      <c r="C5">
+        <v>0.5315974835626166</v>
+      </c>
+      <c r="D5">
+        <v>0.36777787803931145</v>
+      </c>
+      <c r="E5">
+        <v>0.63572353135507786</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>0.7365541842526534</v>
+      </c>
+      <c r="C6">
+        <v>0.47092673079763603</v>
+      </c>
+      <c r="D6">
+        <v>0.40573837834939575</v>
+      </c>
+      <c r="E6">
+        <v>0.67194631702943963</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>0.81673213066923211</v>
+      </c>
+      <c r="C7">
+        <v>0.50279448543083693</v>
+      </c>
+      <c r="D7">
+        <v>0.37324588618287885</v>
+      </c>
+      <c r="E7">
+        <v>0.64113537565187928</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>0.78671907341348979</v>
+      </c>
+      <c r="C8">
+        <v>0.49761723962378807</v>
+      </c>
+      <c r="D8">
+        <v>0.36841456412695506</v>
+      </c>
+      <c r="E8">
+        <v>0.63635718356013649</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>0.91373123852283977</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>0.86566952526212826</v>
+      </c>
+      <c r="C5">
+        <v>0.75987569259999188</v>
+      </c>
+      <c r="D5">
+        <v>0.75632203933046016</v>
+      </c>
+      <c r="E5">
+        <v>0.90301930832981137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <v>0.80407241622246017</v>
+      </c>
+      <c r="C6">
+        <v>0.66090775693413151</v>
+      </c>
+      <c r="D6">
+        <v>0.82952347822025341</v>
+      </c>
+      <c r="E6">
+        <v>0.9358881115781601</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7">
+        <v>0.96481986566420175</v>
+      </c>
+      <c r="C7">
+        <v>0.93347874773578654</v>
+      </c>
+      <c r="D7">
+        <v>0.63849268701097062</v>
+      </c>
+      <c r="E7">
+        <v>0.84123424018728643</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <v>0.9306106287861271</v>
+      </c>
+      <c r="C8">
+        <v>0.87139298422182976</v>
+      </c>
+      <c r="D8">
+        <v>0.67914662808835724</v>
+      </c>
+      <c r="E8">
+        <v>0.8639467881819699</v>
       </c>
     </row>
   </sheetData>

--- a/out/csv/factoranalysis/alpha.xlsx
+++ b/out/csv/factoranalysis/alpha.xlsx
@@ -1374,7 +1374,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>0.95371888175654818</v>
+        <v>0.95354200195643479</v>
       </c>
     </row>
     <row r="4">
@@ -1399,16 +1399,16 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>0.61942627793058169</v>
+        <v>0.61622277865838992</v>
       </c>
       <c r="C5">
-        <v>0.56971978603616702</v>
+        <v>0.56601003818575979</v>
       </c>
       <c r="D5">
-        <v>0.51493526340476303</v>
+        <v>0.51409341062060721</v>
       </c>
       <c r="E5">
-        <v>0.95276340998603859</v>
+        <v>0.95261149914431831</v>
       </c>
     </row>
     <row r="6">
@@ -1416,16 +1416,16 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>0.63188559236892305</v>
+        <v>0.62635615506399211</v>
       </c>
       <c r="C6">
-        <v>0.58519835869124615</v>
+        <v>0.57897423925374525</v>
       </c>
       <c r="D6">
-        <v>0.51445088266016248</v>
+        <v>0.51372573458784987</v>
       </c>
       <c r="E6">
-        <v>0.95267605915511477</v>
+        <v>0.95254501169266181</v>
       </c>
     </row>
     <row r="7">
@@ -1433,16 +1433,16 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0.53535546191864669</v>
+        <v>0.5295325712521739</v>
       </c>
       <c r="C7">
-        <v>0.47987377388017888</v>
+        <v>0.47338017871049132</v>
       </c>
       <c r="D7">
-        <v>0.52038603264278049</v>
+        <v>0.51967362368938841</v>
       </c>
       <c r="E7">
-        <v>0.95373624521179978</v>
+        <v>0.95361014418818291</v>
       </c>
     </row>
     <row r="8">
@@ -1450,16 +1450,16 @@
         <v>76</v>
       </c>
       <c r="B8">
-        <v>0.58842123483867803</v>
+        <v>0.5838690331943851</v>
       </c>
       <c r="C8">
-        <v>0.53724264426537804</v>
+        <v>0.53209123447069884</v>
       </c>
       <c r="D8">
-        <v>0.51706817655860371</v>
+        <v>0.51629226808833084</v>
       </c>
       <c r="E8">
-        <v>0.95314629093752712</v>
+        <v>0.95300733750871935</v>
       </c>
     </row>
     <row r="9">
@@ -1467,16 +1467,16 @@
         <v>77</v>
       </c>
       <c r="B9">
-        <v>0.54962748744447865</v>
+        <v>0.55912618543730475</v>
       </c>
       <c r="C9">
-        <v>0.4662817938242893</v>
+        <v>0.47617739645811547</v>
       </c>
       <c r="D9">
-        <v>0.52812611175134005</v>
+        <v>0.52570680395459057</v>
       </c>
       <c r="E9">
-        <v>0.95508644954574062</v>
+        <v>0.95466828090377531</v>
       </c>
     </row>
     <row r="10">
@@ -1484,16 +1484,16 @@
         <v>78</v>
       </c>
       <c r="B10">
-        <v>0.80807060707673362</v>
+        <v>0.80825681497040447</v>
       </c>
       <c r="C10">
-        <v>0.76834850564088775</v>
+        <v>0.76854100153974758</v>
       </c>
       <c r="D10">
-        <v>0.49930856765969828</v>
+        <v>0.49818887097816833</v>
       </c>
       <c r="E10">
-        <v>0.94986846414868797</v>
+        <v>0.94965475999229665</v>
       </c>
     </row>
     <row r="11">
@@ -1501,16 +1501,16 @@
         <v>79</v>
       </c>
       <c r="B11">
-        <v>0.84257895993665466</v>
+        <v>0.84221423336576395</v>
       </c>
       <c r="C11">
-        <v>0.81094797065286295</v>
+        <v>0.81050861716693967</v>
       </c>
       <c r="D11">
-        <v>0.49554190028368067</v>
+        <v>0.49450395817522735</v>
       </c>
       <c r="E11">
-        <v>0.94914610893719065</v>
+        <v>0.94894531821795847</v>
       </c>
     </row>
     <row r="12">
@@ -1518,16 +1518,16 @@
         <v>80</v>
       </c>
       <c r="B12">
-        <v>0.81502858064928552</v>
+        <v>0.81452611277490694</v>
       </c>
       <c r="C12">
-        <v>0.7753435810713587</v>
+        <v>0.774581894548104</v>
       </c>
       <c r="D12">
-        <v>0.49802722352513312</v>
+        <v>0.49707801051184014</v>
       </c>
       <c r="E12">
-        <v>0.94962383671483186</v>
+        <v>0.94944188655433104</v>
       </c>
     </row>
     <row r="13">
@@ -1535,16 +1535,16 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>0.83684713502088148</v>
+        <v>0.83572260750981686</v>
       </c>
       <c r="C13">
-        <v>0.79981728570312183</v>
+        <v>0.79845945872119883</v>
       </c>
       <c r="D13">
-        <v>0.49474577648790324</v>
+        <v>0.49383496601182453</v>
       </c>
       <c r="E13">
-        <v>0.94899216583799106</v>
+        <v>0.9488154990628811</v>
       </c>
     </row>
     <row r="14">
@@ -1552,16 +1552,16 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>0.79101212857643521</v>
+        <v>0.78956051368233604</v>
       </c>
       <c r="C14">
-        <v>0.74769052703892414</v>
+        <v>0.74597092702953727</v>
       </c>
       <c r="D14">
-        <v>0.49909348476918308</v>
+        <v>0.49820353425096131</v>
       </c>
       <c r="E14">
-        <v>0.94982748060151256</v>
+        <v>0.94965756419412906</v>
       </c>
     </row>
     <row r="15">
@@ -1569,16 +1569,16 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>0.77415109601581622</v>
+        <v>0.77277435358654867</v>
       </c>
       <c r="C15">
-        <v>0.72539290004247203</v>
+        <v>0.72373253077747535</v>
       </c>
       <c r="D15">
-        <v>0.50172984926939912</v>
+        <v>0.50083786576738409</v>
       </c>
       <c r="E15">
-        <v>0.95032765114441875</v>
+        <v>0.95015895476683931</v>
       </c>
     </row>
     <row r="16">
@@ -1586,16 +1586,16 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <v>0.85640462551799401</v>
+        <v>0.85563562633025569</v>
       </c>
       <c r="C16">
-        <v>0.82455604187558185</v>
+        <v>0.82362592700678061</v>
       </c>
       <c r="D16">
-        <v>0.49312899731345988</v>
+        <v>0.49215966900972818</v>
       </c>
       <c r="E16">
-        <v>0.94867816124582127</v>
+        <v>0.94848901316541911</v>
       </c>
     </row>
     <row r="17">
@@ -1603,16 +1603,16 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>0.85012488922044849</v>
+        <v>0.84928000853230001</v>
       </c>
       <c r="C17">
-        <v>0.81779308989628818</v>
+        <v>0.81676388591148119</v>
       </c>
       <c r="D17">
-        <v>0.49424809516178891</v>
+        <v>0.49329590396437489</v>
       </c>
       <c r="E17">
-        <v>0.94889570483952257</v>
+        <v>0.94871066284098582</v>
       </c>
     </row>
     <row r="18">
@@ -1620,16 +1620,16 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <v>0.51846534062661642</v>
+        <v>0.52070599543445872</v>
       </c>
       <c r="C18">
-        <v>0.45504579026192116</v>
+        <v>0.45732783833370744</v>
       </c>
       <c r="D18">
-        <v>0.52665581249455318</v>
+        <v>0.52541181599548425</v>
       </c>
       <c r="E18">
-        <v>0.95483272785632922</v>
+        <v>0.95461705508162631</v>
       </c>
     </row>
     <row r="19">
@@ -1637,16 +1637,16 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>0.68937972704310002</v>
+        <v>0.68903591568770428</v>
       </c>
       <c r="C19">
-        <v>0.64562149446632333</v>
+        <v>0.64535821090026058</v>
       </c>
       <c r="D19">
-        <v>0.51018144968635293</v>
+        <v>0.50910512287265819</v>
       </c>
       <c r="E19">
-        <v>0.95189966109348689</v>
+        <v>0.95170207761925341</v>
       </c>
     </row>
     <row r="20">
@@ -1654,16 +1654,16 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <v>0.68440765118951008</v>
+        <v>0.68221212285697841</v>
       </c>
       <c r="C20">
-        <v>0.63579026134941818</v>
+        <v>0.63324654157250093</v>
       </c>
       <c r="D20">
-        <v>0.51111075315381593</v>
+        <v>0.51025658789422734</v>
       </c>
       <c r="E20">
-        <v>0.95206965140465616</v>
+        <v>0.95191342629495124</v>
       </c>
     </row>
     <row r="21">
@@ -1671,16 +1671,16 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <v>0.78210580352402526</v>
+        <v>0.781217350249786</v>
       </c>
       <c r="C21">
-        <v>0.7456458827618182</v>
+        <v>0.74456362398457299</v>
       </c>
       <c r="D21">
-        <v>0.50420106325045799</v>
+        <v>0.50326573649606376</v>
       </c>
       <c r="E21">
-        <v>0.95079221138335435</v>
+        <v>0.95061686380788113</v>
       </c>
     </row>
     <row r="22">
@@ -1688,16 +1688,16 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <v>0.78239643997217834</v>
+        <v>0.78208494830936548</v>
       </c>
       <c r="C22">
-        <v>0.75108697962007476</v>
+        <v>0.75082226159882293</v>
       </c>
       <c r="D22">
-        <v>0.50430565265372629</v>
+        <v>0.50322007423518667</v>
       </c>
       <c r="E22">
-        <v>0.95081178254758358</v>
+        <v>0.95060828838393063</v>
       </c>
     </row>
     <row r="23">
@@ -1705,16 +1705,16 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <v>0.71084470300718816</v>
+        <v>0.70732326990456829</v>
       </c>
       <c r="C23">
-        <v>0.66825022215785412</v>
+        <v>0.66420108393942157</v>
       </c>
       <c r="D23">
-        <v>0.50954998724488387</v>
+        <v>0.50881940952871518</v>
       </c>
       <c r="E23">
-        <v>0.95178383351928675</v>
+        <v>0.9516495020687824</v>
       </c>
     </row>
     <row r="24">
@@ -1722,16 +1722,16 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <v>0.70538717816617924</v>
+        <v>0.70413908606887388</v>
       </c>
       <c r="C24">
-        <v>0.66027540150804109</v>
+        <v>0.65879241059588534</v>
       </c>
       <c r="D24">
-        <v>0.50994970845619481</v>
+        <v>0.50901463390407731</v>
       </c>
       <c r="E24">
-        <v>0.9518571834261258</v>
+        <v>0.95168543204660816</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1753,7 @@
         <v>94</v>
       </c>
       <c r="B2">
-        <v>0.92513050712493694</v>
+        <v>0.9247487414744493</v>
       </c>
     </row>
     <row r="4">
@@ -1778,16 +1778,16 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>0.64536501804688517</v>
+        <v>0.64125369414699862</v>
       </c>
       <c r="C5">
-        <v>0.58572771881130481</v>
+        <v>0.58078303011792987</v>
       </c>
       <c r="D5">
-        <v>0.42531574577305425</v>
+        <v>0.42421858555950592</v>
       </c>
       <c r="E5">
-        <v>0.92212672110545446</v>
+        <v>0.921803665000552</v>
       </c>
     </row>
     <row r="6">
@@ -1795,16 +1795,16 @@
         <v>101</v>
       </c>
       <c r="B6">
-        <v>0.58337007660522922</v>
+        <v>0.578906110778448</v>
       </c>
       <c r="C6">
-        <v>0.5135189575132223</v>
+        <v>0.50822983151971723</v>
       </c>
       <c r="D6">
-        <v>0.42985864319447625</v>
+        <v>0.42879528937709621</v>
       </c>
       <c r="E6">
-        <v>0.92344917160886619</v>
+        <v>0.92314180013820601</v>
       </c>
     </row>
     <row r="7">
@@ -1812,16 +1812,16 @@
         <v>102</v>
       </c>
       <c r="B7">
-        <v>0.68939797410464976</v>
+        <v>0.68946437102777092</v>
       </c>
       <c r="C7">
-        <v>0.63566916926599715</v>
+        <v>0.63588247277771148</v>
       </c>
       <c r="D7">
-        <v>0.42182456817987452</v>
+        <v>0.42037789339415355</v>
       </c>
       <c r="E7">
-        <v>0.92109371460858003</v>
+        <v>0.92066131737741264</v>
       </c>
     </row>
     <row r="8">
@@ -1829,16 +1829,16 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>0.6211012964132907</v>
+        <v>0.61737211611832377</v>
       </c>
       <c r="C8">
-        <v>0.55325279547594541</v>
+        <v>0.54873299469866932</v>
       </c>
       <c r="D8">
-        <v>0.42651964453380387</v>
+        <v>0.42539511455665541</v>
       </c>
       <c r="E8">
-        <v>0.92247955219055977</v>
+        <v>0.92215003516905125</v>
       </c>
     </row>
     <row r="9">
@@ -1846,16 +1846,16 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>0.63474841564211326</v>
+        <v>0.63821233945550027</v>
       </c>
       <c r="C9">
-        <v>0.57225555774887504</v>
+        <v>0.57581973020334332</v>
       </c>
       <c r="D9">
-        <v>0.42649184286661046</v>
+        <v>0.42493460770030289</v>
       </c>
       <c r="E9">
-        <v>0.92247142368401935</v>
+        <v>0.92201465940187621</v>
       </c>
     </row>
     <row r="10">
@@ -1863,16 +1863,16 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>0.83207996559210096</v>
+        <v>0.83146063115912128</v>
       </c>
       <c r="C10">
-        <v>0.79285907235390363</v>
+        <v>0.79212119935854253</v>
       </c>
       <c r="D10">
-        <v>0.39963799208871759</v>
+        <v>0.39831324027633319</v>
       </c>
       <c r="E10">
-        <v>0.91416741585301597</v>
+        <v>0.91373293759731922</v>
       </c>
     </row>
     <row r="11">
@@ -1880,16 +1880,16 @@
         <v>106</v>
       </c>
       <c r="B11">
-        <v>0.85272144763608015</v>
+        <v>0.85250866749033627</v>
       </c>
       <c r="C11">
-        <v>0.8183501814416283</v>
+        <v>0.8180484400322513</v>
       </c>
       <c r="D11">
-        <v>0.39758463346647765</v>
+        <v>0.39626434479673533</v>
       </c>
       <c r="E11">
-        <v>0.91349291983878078</v>
+        <v>0.91305606519428517</v>
       </c>
     </row>
     <row r="12">
@@ -1897,16 +1897,16 @@
         <v>107</v>
       </c>
       <c r="B12">
-        <v>0.79258254058979893</v>
+        <v>0.79184229848676724</v>
       </c>
       <c r="C12">
-        <v>0.74175306974028055</v>
+        <v>0.74081413876354929</v>
       </c>
       <c r="D12">
-        <v>0.40581525808337948</v>
+        <v>0.40457815880986708</v>
       </c>
       <c r="E12">
-        <v>0.91616120310056193</v>
+        <v>0.91576610019529614</v>
       </c>
     </row>
     <row r="13">
@@ -1914,16 +1914,16 @@
         <v>108</v>
       </c>
       <c r="B13">
-        <v>0.85325801240704546</v>
+        <v>0.85292946597115149</v>
       </c>
       <c r="C13">
-        <v>0.81778731959166095</v>
+        <v>0.81735243999561524</v>
       </c>
       <c r="D13">
-        <v>0.39705175696736406</v>
+        <v>0.39573442927430269</v>
       </c>
       <c r="E13">
-        <v>0.91331690205340554</v>
+        <v>0.91288002616054365</v>
       </c>
     </row>
     <row r="14">
@@ -1931,16 +1931,16 @@
         <v>109</v>
       </c>
       <c r="B14">
-        <v>0.84189071631299239</v>
+        <v>0.84127737568125094</v>
       </c>
       <c r="C14">
-        <v>0.80177240503090963</v>
+        <v>0.80103089028242869</v>
       </c>
       <c r="D14">
-        <v>0.39824250954317536</v>
+        <v>0.39689615018130819</v>
       </c>
       <c r="E14">
-        <v>0.91370967044034501</v>
+        <v>0.91326542625951823</v>
       </c>
     </row>
     <row r="15">
@@ -1948,16 +1948,16 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>0.8133968817903231</v>
+        <v>0.81273660960793837</v>
       </c>
       <c r="C15">
-        <v>0.76779419544821792</v>
+        <v>0.76697454065180704</v>
       </c>
       <c r="D15">
-        <v>0.40358654582806153</v>
+        <v>0.40231753388413377</v>
       </c>
       <c r="E15">
-        <v>0.91544789936923265</v>
+        <v>0.91503872050644552</v>
       </c>
     </row>
     <row r="16">
@@ -1965,16 +1965,16 @@
         <v>111</v>
       </c>
       <c r="B16">
-        <v>0.44264130531226681</v>
+        <v>0.4439015622325731</v>
       </c>
       <c r="C16">
-        <v>0.35061192552061826</v>
+        <v>0.35174535929109779</v>
       </c>
       <c r="D16">
-        <v>0.44755037532698938</v>
+        <v>0.44597039050765863</v>
       </c>
       <c r="E16">
-        <v>0.92837659593037158</v>
+        <v>0.9279503758407982</v>
       </c>
     </row>
     <row r="17">
@@ -1982,16 +1982,16 @@
         <v>112</v>
       </c>
       <c r="B17">
-        <v>0.50537082562637337</v>
+        <v>0.50869390829294114</v>
       </c>
       <c r="C17">
-        <v>0.42212882733911544</v>
+        <v>0.42555086460274821</v>
       </c>
       <c r="D17">
-        <v>0.44227581365600271</v>
+        <v>0.44049637232144201</v>
       </c>
       <c r="E17">
-        <v>0.92694338975327817</v>
+        <v>0.92645315415796337</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         <v>113</v>
       </c>
       <c r="B18">
-        <v>0.62792465974772205</v>
+        <v>0.62708155017997402</v>
       </c>
       <c r="C18">
-        <v>0.55875162848322713</v>
+        <v>0.55764499458715067</v>
       </c>
       <c r="D18">
-        <v>0.42925972504846915</v>
+        <v>0.42794258575335331</v>
       </c>
       <c r="E18">
-        <v>0.92327621135095539</v>
+        <v>0.92289436405975167</v>
       </c>
     </row>
     <row r="19">
@@ -2016,16 +2016,16 @@
         <v>114</v>
       </c>
       <c r="B19">
-        <v>0.5849700752992264</v>
+        <v>0.58234954730035393</v>
       </c>
       <c r="C19">
-        <v>0.51072268269049492</v>
+        <v>0.50762294593370227</v>
       </c>
       <c r="D19">
-        <v>0.43506319459412868</v>
+        <v>0.43395371891414813</v>
       </c>
       <c r="E19">
-        <v>0.92493479738462669</v>
+        <v>0.9246206909946838</v>
       </c>
     </row>
     <row r="20">
@@ -2033,16 +2033,16 @@
         <v>115</v>
       </c>
       <c r="B20">
-        <v>0.49284334920923228</v>
+        <v>0.49392954724074045</v>
       </c>
       <c r="C20">
-        <v>0.40801053288467065</v>
+        <v>0.40899382096534798</v>
       </c>
       <c r="D20">
-        <v>0.44206174904881629</v>
+        <v>0.44051294071945174</v>
       </c>
       <c r="E20">
-        <v>0.9268845964807515</v>
+        <v>0.92645773461279202</v>
       </c>
     </row>
     <row r="21">
@@ -2050,16 +2050,16 @@
         <v>116</v>
       </c>
       <c r="B21">
-        <v>0.68987218091697033</v>
+        <v>0.68937963192354956</v>
       </c>
       <c r="C21">
-        <v>0.62828994249231795</v>
+        <v>0.62757832744398756</v>
       </c>
       <c r="D21">
-        <v>0.42290360743390071</v>
+        <v>0.42155384088557901</v>
       </c>
       <c r="E21">
-        <v>0.92141456523596688</v>
+        <v>0.92101299171631379</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2081,7 @@
         <v>118</v>
       </c>
       <c r="B2">
-        <v>0.70970299230189537</v>
+        <v>0.7098361624622439</v>
       </c>
     </row>
     <row r="4">
@@ -2106,16 +2106,16 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>0.77526022961621621</v>
+        <v>0.77463890660688228</v>
       </c>
       <c r="C5">
-        <v>0.5315974835626166</v>
+        <v>0.53057130121191687</v>
       </c>
       <c r="D5">
-        <v>0.36777787803931145</v>
+        <v>0.36854272938341653</v>
       </c>
       <c r="E5">
-        <v>0.63572353135507786</v>
+        <v>0.63648462576800424</v>
       </c>
     </row>
     <row r="6">
@@ -2123,16 +2123,16 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>0.7365541842526534</v>
+        <v>0.73586292627178185</v>
       </c>
       <c r="C6">
-        <v>0.47092673079763603</v>
+        <v>0.46986011161090091</v>
       </c>
       <c r="D6">
-        <v>0.40573837834939575</v>
+        <v>0.40658434640046731</v>
       </c>
       <c r="E6">
-        <v>0.67194631702943963</v>
+        <v>0.67271900515619432</v>
       </c>
     </row>
     <row r="7">
@@ -2140,16 +2140,16 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>0.81673213066923211</v>
+        <v>0.81636394341574559</v>
       </c>
       <c r="C7">
-        <v>0.50279448543083693</v>
+        <v>0.50207235886458124</v>
       </c>
       <c r="D7">
-        <v>0.37324588618287885</v>
+        <v>0.37444270781046057</v>
       </c>
       <c r="E7">
-        <v>0.64113537565187928</v>
+        <v>0.6423108760573415</v>
       </c>
     </row>
     <row r="8">
@@ -2157,16 +2157,16 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>0.78671907341348979</v>
+        <v>0.78836031189541755</v>
       </c>
       <c r="C8">
-        <v>0.49761723962378807</v>
+        <v>0.50001282488222698</v>
       </c>
       <c r="D8">
-        <v>0.36841456412695506</v>
+        <v>0.3660177430452653</v>
       </c>
       <c r="E8">
-        <v>0.63635718356013649</v>
+        <v>0.63396693540862148</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2188,7 @@
         <v>129</v>
       </c>
       <c r="B2">
-        <v>0.91373123852283977</v>
+        <v>0.91366528184120499</v>
       </c>
     </row>
     <row r="4">
@@ -2213,16 +2213,16 @@
         <v>135</v>
       </c>
       <c r="B5">
-        <v>0.86566952526212826</v>
+        <v>0.86556172120234376</v>
       </c>
       <c r="C5">
-        <v>0.75987569259999188</v>
+        <v>0.75968486614984743</v>
       </c>
       <c r="D5">
-        <v>0.75632203933046016</v>
+        <v>0.75619805075894075</v>
       </c>
       <c r="E5">
-        <v>0.90301930832981137</v>
+        <v>0.90296038546877044</v>
       </c>
     </row>
     <row r="6">
@@ -2230,16 +2230,16 @@
         <v>136</v>
       </c>
       <c r="B6">
-        <v>0.80407241622246017</v>
+        <v>0.80388791371431412</v>
       </c>
       <c r="C6">
-        <v>0.66090775693413151</v>
+        <v>0.66060471063911319</v>
       </c>
       <c r="D6">
-        <v>0.82952347822025341</v>
+        <v>0.82948487527306669</v>
       </c>
       <c r="E6">
-        <v>0.9358881115781601</v>
+        <v>0.93587173201503659</v>
       </c>
     </row>
     <row r="7">
@@ -2247,16 +2247,16 @@
         <v>137</v>
       </c>
       <c r="B7">
-        <v>0.96481986566420175</v>
+        <v>0.96491834785607866</v>
       </c>
       <c r="C7">
-        <v>0.93347874773578654</v>
+        <v>0.933657217301611</v>
       </c>
       <c r="D7">
-        <v>0.63849268701097062</v>
+        <v>0.63813282660302173</v>
       </c>
       <c r="E7">
-        <v>0.84123424018728643</v>
+        <v>0.84102594840487943</v>
       </c>
     </row>
     <row r="8">
@@ -2264,16 +2264,16 @@
         <v>138</v>
       </c>
       <c r="B8">
-        <v>0.9306106287861271</v>
+        <v>0.93052428389223785</v>
       </c>
       <c r="C8">
-        <v>0.87139298422182976</v>
+        <v>0.87123222374875953</v>
       </c>
       <c r="D8">
-        <v>0.67914662808835724</v>
+        <v>0.67900320500755285</v>
       </c>
       <c r="E8">
-        <v>0.8639467881819699</v>
+        <v>0.8638694137432853</v>
       </c>
     </row>
   </sheetData>

--- a/out/csv/factoranalysis/alpha.xlsx
+++ b/out/csv/factoranalysis/alpha.xlsx
@@ -1374,7 +1374,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>0.95354200195643479</v>
+        <v>0.93811986667109926</v>
       </c>
     </row>
     <row r="4">
@@ -1399,16 +1399,16 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>0.61622277865838992</v>
+        <v>0.52021457595164078</v>
       </c>
       <c r="C5">
-        <v>0.56601003818575979</v>
+        <v>0.46088335413329407</v>
       </c>
       <c r="D5">
-        <v>0.51409341062060721</v>
+        <v>0.44208830353793116</v>
       </c>
       <c r="E5">
-        <v>0.95261149914431831</v>
+        <v>0.93771631321975168</v>
       </c>
     </row>
     <row r="6">
@@ -1416,16 +1416,16 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>0.62635615506399211</v>
+        <v>0.59109636684383315</v>
       </c>
       <c r="C6">
-        <v>0.57897423925374525</v>
+        <v>0.5386377017423325</v>
       </c>
       <c r="D6">
-        <v>0.51372573458784987</v>
+        <v>0.43751734969827177</v>
       </c>
       <c r="E6">
-        <v>0.95254501169266181</v>
+        <v>0.93662390329116285</v>
       </c>
     </row>
     <row r="7">
@@ -1433,16 +1433,16 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0.5295325712521739</v>
+        <v>0.47311259405578543</v>
       </c>
       <c r="C7">
-        <v>0.47338017871049132</v>
+        <v>0.41138034118202949</v>
       </c>
       <c r="D7">
-        <v>0.51967362368938841</v>
+        <v>0.44551708765766174</v>
       </c>
       <c r="E7">
-        <v>0.95361014418818291</v>
+        <v>0.93852267399053968</v>
       </c>
     </row>
     <row r="8">
@@ -1450,16 +1450,16 @@
         <v>76</v>
       </c>
       <c r="B8">
-        <v>0.5838690331943851</v>
+        <v>0.54685124704182164</v>
       </c>
       <c r="C8">
-        <v>0.53209123447069884</v>
+        <v>0.49043465758161364</v>
       </c>
       <c r="D8">
-        <v>0.51629226808833084</v>
+        <v>0.44049910582768553</v>
       </c>
       <c r="E8">
-        <v>0.95300733750871935</v>
+        <v>0.93733879463424963</v>
       </c>
     </row>
     <row r="9">
@@ -1467,16 +1467,16 @@
         <v>77</v>
       </c>
       <c r="B9">
-        <v>0.55912618543730475</v>
+        <v>0.53862495167377233</v>
       </c>
       <c r="C9">
-        <v>0.47617739645811547</v>
+        <v>0.47094554250875525</v>
       </c>
       <c r="D9">
-        <v>0.52570680395459057</v>
+        <v>0.44396287469296303</v>
       </c>
       <c r="E9">
-        <v>0.95466828090377531</v>
+        <v>0.93815853523046633</v>
       </c>
     </row>
     <row r="10">
@@ -1484,16 +1484,16 @@
         <v>78</v>
       </c>
       <c r="B10">
-        <v>0.80825681497040447</v>
+        <v>0.78476474115159434</v>
       </c>
       <c r="C10">
-        <v>0.76854100153974758</v>
+        <v>0.74717071260263157</v>
       </c>
       <c r="D10">
-        <v>0.49818887097816833</v>
+        <v>0.42142270881698352</v>
       </c>
       <c r="E10">
-        <v>0.94965475999229665</v>
+        <v>0.93261080169809207</v>
       </c>
     </row>
     <row r="11">
@@ -1501,16 +1501,16 @@
         <v>79</v>
       </c>
       <c r="B11">
-        <v>0.84221423336576395</v>
+        <v>0.8152789509224877</v>
       </c>
       <c r="C11">
-        <v>0.81050861716693967</v>
+        <v>0.78282266201245565</v>
       </c>
       <c r="D11">
-        <v>0.49450395817522735</v>
+        <v>0.41841427076689441</v>
       </c>
       <c r="E11">
-        <v>0.94894531821795847</v>
+        <v>0.93183043203103233</v>
       </c>
     </row>
     <row r="12">
@@ -1518,16 +1518,16 @@
         <v>80</v>
       </c>
       <c r="B12">
-        <v>0.81452611277490694</v>
+        <v>0.76951665233257049</v>
       </c>
       <c r="C12">
-        <v>0.774581894548104</v>
+        <v>0.72910967655718306</v>
       </c>
       <c r="D12">
-        <v>0.49707801051184014</v>
+        <v>0.42290307380571585</v>
       </c>
       <c r="E12">
-        <v>0.94944188655433104</v>
+        <v>0.93299119636126671</v>
       </c>
     </row>
     <row r="13">
@@ -1535,16 +1535,16 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>0.83572260750981686</v>
+        <v>0.84021421332046153</v>
       </c>
       <c r="C13">
-        <v>0.79845945872119883</v>
+        <v>0.8086126296609738</v>
       </c>
       <c r="D13">
-        <v>0.49383496601182453</v>
+        <v>0.41630576233609057</v>
       </c>
       <c r="E13">
-        <v>0.9488154990628811</v>
+        <v>0.93127756733082889</v>
       </c>
     </row>
     <row r="14">
@@ -1552,16 +1552,16 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>0.78956051368233604</v>
+        <v>0.7378263487386848</v>
       </c>
       <c r="C14">
-        <v>0.74597092702953727</v>
+        <v>0.69203546312319986</v>
       </c>
       <c r="D14">
-        <v>0.49820353425096131</v>
+        <v>0.42589317955654699</v>
       </c>
       <c r="E14">
-        <v>0.94965756419412906</v>
+        <v>0.93375239972217805</v>
       </c>
     </row>
     <row r="15">
@@ -1569,16 +1569,16 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>0.77277435358654867</v>
+        <v>0.76890380732505403</v>
       </c>
       <c r="C15">
-        <v>0.72373253077747535</v>
+        <v>0.72755326672862342</v>
       </c>
       <c r="D15">
-        <v>0.50083786576738409</v>
+        <v>0.42282378705797896</v>
       </c>
       <c r="E15">
-        <v>0.95015895476683931</v>
+        <v>0.93297088250453564</v>
       </c>
     </row>
     <row r="16">
@@ -1586,16 +1586,16 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <v>0.85563562633025569</v>
+        <v>0.82498666731825854</v>
       </c>
       <c r="C16">
-        <v>0.82362592700678061</v>
+        <v>0.7943687624796536</v>
       </c>
       <c r="D16">
-        <v>0.49215966900972818</v>
+        <v>0.41755781209995524</v>
       </c>
       <c r="E16">
-        <v>0.94848901316541911</v>
+        <v>0.93160645726809987</v>
       </c>
     </row>
     <row r="17">
@@ -1603,16 +1603,16 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>0.84928000853230001</v>
+        <v>0.81360892089385817</v>
       </c>
       <c r="C17">
-        <v>0.81676388591148119</v>
+        <v>0.78035305157606061</v>
       </c>
       <c r="D17">
-        <v>0.49329590396437489</v>
+        <v>0.41942866849568017</v>
       </c>
       <c r="E17">
-        <v>0.94871066284098582</v>
+        <v>0.9320946649843429</v>
       </c>
     </row>
     <row r="18">
@@ -1620,16 +1620,16 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <v>0.52070599543445872</v>
+        <v>0.26596340886531933</v>
       </c>
       <c r="C18">
-        <v>0.45732783833370744</v>
+        <v>0.18794090417335127</v>
       </c>
       <c r="D18">
-        <v>0.52541181599548425</v>
+        <v>0.46422552969655684</v>
       </c>
       <c r="E18">
-        <v>0.95461705508162631</v>
+        <v>0.94273502981403401</v>
       </c>
     </row>
     <row r="19">
@@ -1637,16 +1637,16 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>0.68903591568770428</v>
+        <v>0.65976071460772967</v>
       </c>
       <c r="C19">
-        <v>0.64535821090026058</v>
+        <v>0.61335628927590491</v>
       </c>
       <c r="D19">
-        <v>0.50910512287265819</v>
+        <v>0.43222507541203486</v>
       </c>
       <c r="E19">
-        <v>0.95170207761925341</v>
+        <v>0.93533353035476741</v>
       </c>
     </row>
     <row r="20">
@@ -1654,16 +1654,16 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <v>0.68221212285697841</v>
+        <v>0.61033157636876678</v>
       </c>
       <c r="C20">
-        <v>0.63324654157250093</v>
+        <v>0.55488810277002099</v>
       </c>
       <c r="D20">
-        <v>0.51025658789422734</v>
+        <v>0.43672983408746191</v>
       </c>
       <c r="E20">
-        <v>0.95191342629495124</v>
+        <v>0.93643364671490026</v>
       </c>
     </row>
     <row r="21">
@@ -1671,16 +1671,16 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <v>0.781217350249786</v>
+        <v>0.74332002454423496</v>
       </c>
       <c r="C21">
-        <v>0.74456362398457299</v>
+        <v>0.70281443410571387</v>
       </c>
       <c r="D21">
-        <v>0.50326573649606376</v>
+        <v>0.42658145967339672</v>
       </c>
       <c r="E21">
-        <v>0.95061686380788113</v>
+        <v>0.93392628118674414</v>
       </c>
     </row>
     <row r="22">
@@ -1688,16 +1688,16 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <v>0.78208494830936548</v>
+        <v>0.75955882160231458</v>
       </c>
       <c r="C22">
-        <v>0.75082226159882293</v>
+        <v>0.724805030149963</v>
       </c>
       <c r="D22">
-        <v>0.50322007423518667</v>
+        <v>0.42606529162018753</v>
       </c>
       <c r="E22">
-        <v>0.95060828838393063</v>
+        <v>0.93379592730747929</v>
       </c>
     </row>
     <row r="23">
@@ -1705,16 +1705,16 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <v>0.70732326990456829</v>
+        <v>0.67642171967914766</v>
       </c>
       <c r="C23">
-        <v>0.66420108393942157</v>
+        <v>0.62971163322889856</v>
       </c>
       <c r="D23">
-        <v>0.50881940952871518</v>
+        <v>0.43162552827468886</v>
       </c>
       <c r="E23">
-        <v>0.9516495020687824</v>
+        <v>0.93518557967801208</v>
       </c>
     </row>
     <row r="24">
@@ -1722,16 +1722,16 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <v>0.70413908606887388</v>
+        <v>0.69513450010582534</v>
       </c>
       <c r="C24">
-        <v>0.65879241059588534</v>
+        <v>0.64966957057701935</v>
       </c>
       <c r="D24">
-        <v>0.50901463390407731</v>
+        <v>0.43047783149984775</v>
       </c>
       <c r="E24">
-        <v>0.95168543204660816</v>
+        <v>0.93490134358069532</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1753,7 @@
         <v>94</v>
       </c>
       <c r="B2">
-        <v>0.9247487414744493</v>
+        <v>0.89980548376827996</v>
       </c>
     </row>
     <row r="4">
@@ -1778,16 +1778,16 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>0.64125369414699862</v>
+        <v>0.60765057404749367</v>
       </c>
       <c r="C5">
-        <v>0.58078303011792987</v>
+        <v>0.54099130370298742</v>
       </c>
       <c r="D5">
-        <v>0.42421858555950592</v>
+        <v>0.34711186131012206</v>
       </c>
       <c r="E5">
-        <v>0.921803665000552</v>
+        <v>0.89480876128231535</v>
       </c>
     </row>
     <row r="6">
@@ -1795,16 +1795,16 @@
         <v>101</v>
       </c>
       <c r="B6">
-        <v>0.578906110778448</v>
+        <v>0.57890901691872954</v>
       </c>
       <c r="C6">
-        <v>0.50822983151971723</v>
+        <v>0.50613589588786334</v>
       </c>
       <c r="D6">
-        <v>0.42879528937709621</v>
+        <v>0.34931225267703742</v>
       </c>
       <c r="E6">
-        <v>0.92314180013820601</v>
+        <v>0.89571783295340035</v>
       </c>
     </row>
     <row r="7">
@@ -1812,16 +1812,16 @@
         <v>102</v>
       </c>
       <c r="B7">
-        <v>0.68946437102777092</v>
+        <v>0.5704209036028508</v>
       </c>
       <c r="C7">
-        <v>0.63588247277771148</v>
+        <v>0.50065923643525823</v>
       </c>
       <c r="D7">
-        <v>0.42037789339415355</v>
+        <v>0.34918428976873922</v>
       </c>
       <c r="E7">
-        <v>0.92066131737741264</v>
+        <v>0.89566522970794993</v>
       </c>
     </row>
     <row r="8">
@@ -1829,16 +1829,16 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>0.61737211611832377</v>
+        <v>0.53503182891015633</v>
       </c>
       <c r="C8">
-        <v>0.54873299469866932</v>
+        <v>0.45733791410152069</v>
       </c>
       <c r="D8">
-        <v>0.42539511455665541</v>
+        <v>0.35260948418173588</v>
       </c>
       <c r="E8">
-        <v>0.92215003516905125</v>
+        <v>0.89706219246221153</v>
       </c>
     </row>
     <row r="9">
@@ -1846,16 +1846,16 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>0.63821233945550027</v>
+        <v>0.54932073727996222</v>
       </c>
       <c r="C9">
-        <v>0.57581973020334332</v>
+        <v>0.47584282472940015</v>
       </c>
       <c r="D9">
-        <v>0.42493460770030289</v>
+        <v>0.35127111453286131</v>
       </c>
       <c r="E9">
-        <v>0.92201465940187621</v>
+        <v>0.89651906501406109</v>
       </c>
     </row>
     <row r="10">
@@ -1863,16 +1863,16 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>0.83146063115912128</v>
+        <v>0.76272895271912244</v>
       </c>
       <c r="C10">
-        <v>0.79212119935854253</v>
+        <v>0.7117936217212274</v>
       </c>
       <c r="D10">
-        <v>0.39831324027633319</v>
+        <v>0.33088834881486806</v>
       </c>
       <c r="E10">
-        <v>0.91373293759731922</v>
+        <v>0.88779554608734645</v>
       </c>
     </row>
     <row r="11">
@@ -1880,16 +1880,16 @@
         <v>106</v>
       </c>
       <c r="B11">
-        <v>0.85250866749033627</v>
+        <v>0.79083360931839053</v>
       </c>
       <c r="C11">
-        <v>0.8180484400322513</v>
+        <v>0.74635828466019827</v>
       </c>
       <c r="D11">
-        <v>0.39626434479673533</v>
+        <v>0.3283942465983597</v>
       </c>
       <c r="E11">
-        <v>0.91305606519428517</v>
+        <v>0.88666629527227803</v>
       </c>
     </row>
     <row r="12">
@@ -1897,16 +1897,16 @@
         <v>107</v>
       </c>
       <c r="B12">
-        <v>0.79184229848676724</v>
+        <v>0.74898648072644181</v>
       </c>
       <c r="C12">
-        <v>0.74081413876354929</v>
+        <v>0.69562621214810938</v>
       </c>
       <c r="D12">
-        <v>0.40457815880986708</v>
+        <v>0.33254915084140568</v>
       </c>
       <c r="E12">
-        <v>0.91576610019529614</v>
+        <v>0.88853967872568107</v>
       </c>
     </row>
     <row r="13">
@@ -1914,16 +1914,16 @@
         <v>108</v>
       </c>
       <c r="B13">
-        <v>0.85292946597115149</v>
+        <v>0.73765275982885248</v>
       </c>
       <c r="C13">
-        <v>0.81735243999561524</v>
+        <v>0.68385891674021859</v>
       </c>
       <c r="D13">
-        <v>0.39573442927430269</v>
+        <v>0.33440865992823343</v>
       </c>
       <c r="E13">
-        <v>0.91288002616054365</v>
+        <v>0.88936553045657074</v>
       </c>
     </row>
     <row r="14">
@@ -1931,16 +1931,16 @@
         <v>109</v>
       </c>
       <c r="B14">
-        <v>0.84127737568125094</v>
+        <v>0.77405707165228466</v>
       </c>
       <c r="C14">
-        <v>0.80103089028242869</v>
+        <v>0.72439603017699539</v>
       </c>
       <c r="D14">
-        <v>0.39689615018130819</v>
+        <v>0.32982355817976178</v>
       </c>
       <c r="E14">
-        <v>0.91326542625951823</v>
+        <v>0.8873151804133691</v>
       </c>
     </row>
     <row r="15">
@@ -1948,16 +1948,16 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>0.81273660960793837</v>
+        <v>0.7321382045732433</v>
       </c>
       <c r="C15">
-        <v>0.76697454065180704</v>
+        <v>0.6767540676300533</v>
       </c>
       <c r="D15">
-        <v>0.40231753388413377</v>
+        <v>0.33478932057131988</v>
       </c>
       <c r="E15">
-        <v>0.91503872050644552</v>
+        <v>0.88953364742748453</v>
       </c>
     </row>
     <row r="16">
@@ -1965,16 +1965,16 @@
         <v>111</v>
       </c>
       <c r="B16">
-        <v>0.4439015622325731</v>
+        <v>0.44061752009594934</v>
       </c>
       <c r="C16">
-        <v>0.35174535929109779</v>
+        <v>0.34975492578928696</v>
       </c>
       <c r="D16">
-        <v>0.44597039050765863</v>
+        <v>0.36286363371859487</v>
       </c>
       <c r="E16">
-        <v>0.9279503758407982</v>
+        <v>0.90111114928563685</v>
       </c>
     </row>
     <row r="17">
@@ -1982,16 +1982,16 @@
         <v>112</v>
       </c>
       <c r="B17">
-        <v>0.50869390829294114</v>
+        <v>0.47620613915187499</v>
       </c>
       <c r="C17">
-        <v>0.42555086460274821</v>
+        <v>0.38898181168285684</v>
       </c>
       <c r="D17">
-        <v>0.44049637232144201</v>
+        <v>0.35988615307866706</v>
       </c>
       <c r="E17">
-        <v>0.92645315415796337</v>
+        <v>0.89995551667692608</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         <v>113</v>
       </c>
       <c r="B18">
-        <v>0.62708155017997402</v>
+        <v>0.55467051167483483</v>
       </c>
       <c r="C18">
-        <v>0.55764499458715067</v>
+        <v>0.47558276939538946</v>
       </c>
       <c r="D18">
-        <v>0.42794258575335331</v>
+        <v>0.35284101886260411</v>
       </c>
       <c r="E18">
-        <v>0.92289436405975167</v>
+        <v>0.89715580056323885</v>
       </c>
     </row>
     <row r="19">
@@ -2016,16 +2016,16 @@
         <v>114</v>
       </c>
       <c r="B19">
-        <v>0.58234954730035393</v>
+        <v>0.52646442951524608</v>
       </c>
       <c r="C19">
-        <v>0.50762294593370227</v>
+        <v>0.44420698421811888</v>
       </c>
       <c r="D19">
-        <v>0.43395371891414813</v>
+        <v>0.35552601201254852</v>
       </c>
       <c r="E19">
-        <v>0.9246206909946838</v>
+        <v>0.89823382852846245</v>
       </c>
     </row>
     <row r="20">
@@ -2033,16 +2033,16 @@
         <v>115</v>
       </c>
       <c r="B20">
-        <v>0.49392954724074045</v>
+        <v>0.49350866726822967</v>
       </c>
       <c r="C20">
-        <v>0.40899382096534798</v>
+        <v>0.40812797146854823</v>
       </c>
       <c r="D20">
-        <v>0.44051294071945174</v>
+        <v>0.35838494836191814</v>
       </c>
       <c r="E20">
-        <v>0.92645773461279202</v>
+        <v>0.89936672332607048</v>
       </c>
     </row>
     <row r="21">
@@ -2050,16 +2050,16 @@
         <v>116</v>
       </c>
       <c r="B21">
-        <v>0.68937963192354956</v>
+        <v>0.64001003189013472</v>
       </c>
       <c r="C21">
-        <v>0.62757832744398756</v>
+        <v>0.57090761410195578</v>
       </c>
       <c r="D21">
-        <v>0.42155384088557901</v>
+        <v>0.34507033591622038</v>
       </c>
       <c r="E21">
-        <v>0.92101299171631379</v>
+        <v>0.8939566341337134</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2081,7 @@
         <v>118</v>
       </c>
       <c r="B2">
-        <v>0.7098361624622439</v>
+        <v>0.66211117647631301</v>
       </c>
     </row>
     <row r="4">
@@ -2106,16 +2106,16 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>0.77463890660688228</v>
+        <v>0.72440688132534969</v>
       </c>
       <c r="C5">
-        <v>0.53057130121191687</v>
+        <v>0.45125479042373434</v>
       </c>
       <c r="D5">
-        <v>0.36854272938341653</v>
+        <v>0.31803270388592036</v>
       </c>
       <c r="E5">
-        <v>0.63648462576800424</v>
+        <v>0.58316623964145087</v>
       </c>
     </row>
     <row r="6">
@@ -2123,16 +2123,16 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>0.73586292627178185</v>
+        <v>0.64920938872831568</v>
       </c>
       <c r="C6">
-        <v>0.46986011161090091</v>
+        <v>0.34990273077469564</v>
       </c>
       <c r="D6">
-        <v>0.40658434640046731</v>
+        <v>0.38755529935631444</v>
       </c>
       <c r="E6">
-        <v>0.67271900515619432</v>
+        <v>0.65498222979015974</v>
       </c>
     </row>
     <row r="7">
@@ -2140,16 +2140,16 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>0.81636394341574559</v>
+        <v>0.76412230331561881</v>
       </c>
       <c r="C7">
-        <v>0.50207235886458124</v>
+        <v>0.46341058296824783</v>
       </c>
       <c r="D7">
-        <v>0.37444270781046057</v>
+        <v>0.29898614071388335</v>
       </c>
       <c r="E7">
-        <v>0.6423108760573415</v>
+        <v>0.56131037600992029</v>
       </c>
     </row>
     <row r="8">
@@ -2157,16 +2157,16 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>0.78836031189541755</v>
+        <v>0.74125341506934572</v>
       </c>
       <c r="C8">
-        <v>0.50001282488222698</v>
+        <v>0.46009249225466198</v>
       </c>
       <c r="D8">
-        <v>0.3660177430452653</v>
+        <v>0.30776620003126054</v>
       </c>
       <c r="E8">
-        <v>0.63396693540862148</v>
+        <v>0.57151351471381817</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2188,7 @@
         <v>129</v>
       </c>
       <c r="B2">
-        <v>0.91366528184120499</v>
+        <v>0.94879129730325307</v>
       </c>
     </row>
     <row r="4">
@@ -2213,16 +2213,16 @@
         <v>135</v>
       </c>
       <c r="B5">
-        <v>0.86556172120234376</v>
+        <v>0.93251077638388924</v>
       </c>
       <c r="C5">
-        <v>0.75968486614984743</v>
+        <v>0.87853374268790541</v>
       </c>
       <c r="D5">
-        <v>0.75619805075894075</v>
+        <v>0.82029816548400292</v>
       </c>
       <c r="E5">
-        <v>0.90296038546877044</v>
+        <v>0.93194649541525321</v>
       </c>
     </row>
     <row r="6">
@@ -2230,16 +2230,16 @@
         <v>136</v>
       </c>
       <c r="B6">
-        <v>0.80388791371431412</v>
+        <v>0.87021774315021971</v>
       </c>
       <c r="C6">
-        <v>0.66060471063911319</v>
+        <v>0.77377575858429226</v>
       </c>
       <c r="D6">
-        <v>0.82948487527306669</v>
+        <v>0.89889402367670834</v>
       </c>
       <c r="E6">
-        <v>0.93587173201503659</v>
+        <v>0.96386217447067379</v>
       </c>
     </row>
     <row r="7">
@@ -2247,16 +2247,16 @@
         <v>137</v>
       </c>
       <c r="B7">
-        <v>0.96491834785607866</v>
+        <v>0.96807253793751136</v>
       </c>
       <c r="C7">
-        <v>0.933657217301611</v>
+        <v>0.94150521098901219</v>
       </c>
       <c r="D7">
-        <v>0.63813282660302173</v>
+        <v>0.77628584993049388</v>
       </c>
       <c r="E7">
-        <v>0.84102594840487943</v>
+        <v>0.91235734922482714</v>
       </c>
     </row>
     <row r="8">
@@ -2264,16 +2264,16 @@
         <v>138</v>
       </c>
       <c r="B8">
-        <v>0.93052428389223785</v>
+        <v>0.95472308681019069</v>
       </c>
       <c r="C8">
-        <v>0.87123222374875953</v>
+        <v>0.9170570109632542</v>
       </c>
       <c r="D8">
-        <v>0.67900320500755285</v>
+        <v>0.79430254063074579</v>
       </c>
       <c r="E8">
-        <v>0.8638694137432853</v>
+        <v>0.92053733462154352</v>
       </c>
     </row>
   </sheetData>

--- a/out/csv/factoranalysis/alpha.xlsx
+++ b/out/csv/factoranalysis/alpha.xlsx
@@ -1374,7 +1374,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>0.93811986667109926</v>
+        <v>0.93476056157324883</v>
       </c>
     </row>
     <row r="4">
@@ -1399,16 +1399,16 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>0.52021457595164078</v>
+        <v>0.52373588132351678</v>
       </c>
       <c r="C5">
-        <v>0.46088335413329407</v>
+        <v>0.46357909123400726</v>
       </c>
       <c r="D5">
-        <v>0.44208830353793116</v>
+        <v>0.42846196583932128</v>
       </c>
       <c r="E5">
-        <v>0.93771631321975168</v>
+        <v>0.93439883556814018</v>
       </c>
     </row>
     <row r="6">
@@ -1416,16 +1416,16 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>0.59109636684383315</v>
+        <v>0.59251316719084646</v>
       </c>
       <c r="C6">
-        <v>0.5386377017423325</v>
+        <v>0.53891351314369262</v>
       </c>
       <c r="D6">
-        <v>0.43751734969827177</v>
+        <v>0.42333952995152985</v>
       </c>
       <c r="E6">
-        <v>0.93662390329116285</v>
+        <v>0.93310289925705125</v>
       </c>
     </row>
     <row r="7">
@@ -1433,16 +1433,16 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0.47311259405578543</v>
+        <v>0.47399432214396608</v>
       </c>
       <c r="C7">
-        <v>0.41138034118202949</v>
+        <v>0.41091850756826753</v>
       </c>
       <c r="D7">
-        <v>0.44551708765766174</v>
+        <v>0.43250728611586581</v>
       </c>
       <c r="E7">
-        <v>0.93852267399053968</v>
+        <v>0.93540304587500611</v>
       </c>
     </row>
     <row r="8">
@@ -1450,16 +1450,16 @@
         <v>76</v>
       </c>
       <c r="B8">
-        <v>0.54685124704182164</v>
+        <v>0.54909354335020133</v>
       </c>
       <c r="C8">
-        <v>0.49043465758161364</v>
+        <v>0.49152066719861881</v>
       </c>
       <c r="D8">
-        <v>0.44049910582768553</v>
+        <v>0.4267227188967791</v>
       </c>
       <c r="E8">
-        <v>0.93733879463424963</v>
+        <v>0.93396190638022281</v>
       </c>
     </row>
     <row r="9">
@@ -1467,16 +1467,16 @@
         <v>77</v>
       </c>
       <c r="B9">
-        <v>0.53862495167377233</v>
+        <v>0.51890870989776039</v>
       </c>
       <c r="C9">
-        <v>0.47094554250875525</v>
+        <v>0.45715157956819463</v>
       </c>
       <c r="D9">
-        <v>0.44396287469296303</v>
+        <v>0.42996012074238438</v>
       </c>
       <c r="E9">
-        <v>0.93815853523046633</v>
+        <v>0.93477268865455765</v>
       </c>
     </row>
     <row r="10">
@@ -1484,16 +1484,16 @@
         <v>78</v>
       </c>
       <c r="B10">
-        <v>0.78476474115159434</v>
+        <v>0.77090251752710426</v>
       </c>
       <c r="C10">
-        <v>0.74717071260263157</v>
+        <v>0.73492784796474975</v>
       </c>
       <c r="D10">
-        <v>0.42142270881698352</v>
+        <v>0.40927159241640076</v>
       </c>
       <c r="E10">
-        <v>0.93261080169809207</v>
+        <v>0.92939688439252799</v>
       </c>
     </row>
     <row r="11">
@@ -1501,16 +1501,16 @@
         <v>79</v>
       </c>
       <c r="B11">
-        <v>0.8152789509224877</v>
+        <v>0.80061650505030113</v>
       </c>
       <c r="C11">
-        <v>0.78282266201245565</v>
+        <v>0.76826267875016951</v>
       </c>
       <c r="D11">
-        <v>0.41841427076689441</v>
+        <v>0.40673690572357024</v>
       </c>
       <c r="E11">
-        <v>0.93183043203103233</v>
+        <v>0.92870517355628091</v>
       </c>
     </row>
     <row r="12">
@@ -1518,16 +1518,16 @@
         <v>80</v>
       </c>
       <c r="B12">
-        <v>0.76951665233257049</v>
+        <v>0.75210045074974896</v>
       </c>
       <c r="C12">
-        <v>0.72910967655718306</v>
+        <v>0.71299111933680426</v>
       </c>
       <c r="D12">
-        <v>0.42290307380571585</v>
+        <v>0.41044119372959637</v>
       </c>
       <c r="E12">
-        <v>0.93299119636126671</v>
+        <v>0.92971352897790249</v>
       </c>
     </row>
     <row r="13">
@@ -1535,16 +1535,16 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>0.84021421332046153</v>
+        <v>0.83990682197243183</v>
       </c>
       <c r="C13">
-        <v>0.8086126296609738</v>
+        <v>0.81318604897136504</v>
       </c>
       <c r="D13">
-        <v>0.41630576233609057</v>
+        <v>0.40355781856995915</v>
       </c>
       <c r="E13">
-        <v>0.93127756733082889</v>
+        <v>0.92782681007882262</v>
       </c>
     </row>
     <row r="14">
@@ -1552,16 +1552,16 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>0.7378263487386848</v>
+        <v>0.73539096330184228</v>
       </c>
       <c r="C14">
-        <v>0.69203546312319986</v>
+        <v>0.69614789143724476</v>
       </c>
       <c r="D14">
-        <v>0.42589317955654699</v>
+        <v>0.41199258273379419</v>
       </c>
       <c r="E14">
-        <v>0.93375239972217805</v>
+        <v>0.93013109012361239</v>
       </c>
     </row>
     <row r="15">
@@ -1569,16 +1569,16 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>0.76890380732505403</v>
+        <v>0.76595155849930652</v>
       </c>
       <c r="C15">
-        <v>0.72755326672862342</v>
+        <v>0.72982799609508942</v>
       </c>
       <c r="D15">
-        <v>0.42282378705797896</v>
+        <v>0.40952865767137958</v>
       </c>
       <c r="E15">
-        <v>0.93297088250453564</v>
+        <v>0.92946661587351143</v>
       </c>
     </row>
     <row r="16">
@@ -1586,16 +1586,16 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <v>0.82498666731825854</v>
+        <v>0.81908087946792407</v>
       </c>
       <c r="C16">
-        <v>0.7943687624796536</v>
+        <v>0.79026917878875036</v>
       </c>
       <c r="D16">
-        <v>0.41755781209995524</v>
+        <v>0.40533097345384811</v>
       </c>
       <c r="E16">
-        <v>0.93160645726809987</v>
+        <v>0.92831821704040562</v>
       </c>
     </row>
     <row r="17">
@@ -1603,16 +1603,16 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>0.81360892089385817</v>
+        <v>0.79621466286102838</v>
       </c>
       <c r="C17">
-        <v>0.78035305157606061</v>
+        <v>0.76417205183184378</v>
       </c>
       <c r="D17">
-        <v>0.41942866849568017</v>
+        <v>0.40721760749368463</v>
       </c>
       <c r="E17">
-        <v>0.9320946649843429</v>
+        <v>0.92883693833443903</v>
       </c>
     </row>
     <row r="18">
@@ -1620,16 +1620,16 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <v>0.26596340886531933</v>
+        <v>0.27702216209658148</v>
       </c>
       <c r="C18">
-        <v>0.18794090417335127</v>
+        <v>0.20053095095819762</v>
       </c>
       <c r="D18">
-        <v>0.46422552969655684</v>
+        <v>0.44906847625775009</v>
       </c>
       <c r="E18">
-        <v>0.94273502981403401</v>
+        <v>0.93934631538536573</v>
       </c>
     </row>
     <row r="19">
@@ -1637,16 +1637,16 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>0.65976071460772967</v>
+        <v>0.65990316316536268</v>
       </c>
       <c r="C19">
-        <v>0.61335628927590491</v>
+        <v>0.61395412342376854</v>
       </c>
       <c r="D19">
-        <v>0.43222507541203486</v>
+        <v>0.41740737239365239</v>
       </c>
       <c r="E19">
-        <v>0.93533353035476741</v>
+        <v>0.93156703162849719</v>
       </c>
     </row>
     <row r="20">
@@ -1654,16 +1654,16 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <v>0.61033157636876678</v>
+        <v>0.60744512371337112</v>
       </c>
       <c r="C20">
-        <v>0.55488810277002099</v>
+        <v>0.55265868503004423</v>
       </c>
       <c r="D20">
-        <v>0.43672983408746191</v>
+        <v>0.42206164892062714</v>
       </c>
       <c r="E20">
-        <v>0.93643364671490026</v>
+        <v>0.93277527302164553</v>
       </c>
     </row>
     <row r="21">
@@ -1671,16 +1671,16 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <v>0.74332002454423496</v>
+        <v>0.74400183617474536</v>
       </c>
       <c r="C21">
-        <v>0.70281443410571387</v>
+        <v>0.70473948744544235</v>
       </c>
       <c r="D21">
-        <v>0.42658145967339672</v>
+        <v>0.41125401993791555</v>
       </c>
       <c r="E21">
-        <v>0.93392628118674414</v>
+        <v>0.9299326497986401</v>
       </c>
     </row>
     <row r="22">
@@ -1688,16 +1688,16 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <v>0.75955882160231458</v>
+        <v>0.75865434474670312</v>
       </c>
       <c r="C22">
-        <v>0.724805030149963</v>
+        <v>0.72375332757437916</v>
       </c>
       <c r="D22">
-        <v>0.42606529162018753</v>
+        <v>0.41098419044898116</v>
       </c>
       <c r="E22">
-        <v>0.93379592730747929</v>
+        <v>0.92985999411442655</v>
       </c>
     </row>
     <row r="23">
@@ -1705,16 +1705,16 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <v>0.67642171967914766</v>
+        <v>0.6762775285988154</v>
       </c>
       <c r="C23">
-        <v>0.62971163322889856</v>
+        <v>0.63007304074528725</v>
       </c>
       <c r="D23">
-        <v>0.43162552827468886</v>
+        <v>0.41651398454986593</v>
       </c>
       <c r="E23">
-        <v>0.93518557967801208</v>
+        <v>0.93133238433475152</v>
       </c>
     </row>
     <row r="24">
@@ -1722,16 +1722,16 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <v>0.69513450010582534</v>
+        <v>0.69386827898254022</v>
       </c>
       <c r="C24">
-        <v>0.64966957057701935</v>
+        <v>0.64837663663662637</v>
       </c>
       <c r="D24">
-        <v>0.43047783149984775</v>
+        <v>0.41536514361429455</v>
       </c>
       <c r="E24">
-        <v>0.93490134358069532</v>
+        <v>0.93102933402395294</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1753,7 @@
         <v>94</v>
       </c>
       <c r="B2">
-        <v>0.89980548376827996</v>
+        <v>0.89085471361440993</v>
       </c>
     </row>
     <row r="4">
@@ -1778,16 +1778,16 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>0.60765057404749367</v>
+        <v>0.60819780597281548</v>
       </c>
       <c r="C5">
-        <v>0.54099130370298742</v>
+        <v>0.53935298750473015</v>
       </c>
       <c r="D5">
-        <v>0.34711186131012206</v>
+        <v>0.3238364661916715</v>
       </c>
       <c r="E5">
-        <v>0.89480876128231535</v>
+        <v>0.88456541029362779</v>
       </c>
     </row>
     <row r="6">
@@ -1795,16 +1795,16 @@
         <v>101</v>
       </c>
       <c r="B6">
-        <v>0.57890901691872954</v>
+        <v>0.57778376077879723</v>
       </c>
       <c r="C6">
-        <v>0.50613589588786334</v>
+        <v>0.50276421382225001</v>
       </c>
       <c r="D6">
-        <v>0.34931225267703742</v>
+        <v>0.32606512477130556</v>
       </c>
       <c r="E6">
-        <v>0.89571783295340035</v>
+        <v>0.88559879118161744</v>
       </c>
     </row>
     <row r="7">
@@ -1812,16 +1812,16 @@
         <v>102</v>
       </c>
       <c r="B7">
-        <v>0.5704209036028508</v>
+        <v>0.56995610225589366</v>
       </c>
       <c r="C7">
-        <v>0.50065923643525823</v>
+        <v>0.49766811609716827</v>
       </c>
       <c r="D7">
-        <v>0.34918428976873922</v>
+        <v>0.32638993295791435</v>
       </c>
       <c r="E7">
-        <v>0.89566522970794993</v>
+        <v>0.88574841932256598</v>
       </c>
     </row>
     <row r="8">
@@ -1829,16 +1829,16 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>0.53503182891015633</v>
+        <v>0.53645401598006992</v>
       </c>
       <c r="C8">
-        <v>0.45733791410152069</v>
+        <v>0.45654114235215276</v>
       </c>
       <c r="D8">
-        <v>0.35260948418173588</v>
+        <v>0.32961501160310597</v>
       </c>
       <c r="E8">
-        <v>0.89706219246221153</v>
+        <v>0.88722079518052255</v>
       </c>
     </row>
     <row r="9">
@@ -1846,16 +1846,16 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>0.54932073727996222</v>
+        <v>0.54773926891713187</v>
       </c>
       <c r="C9">
-        <v>0.47584282472940015</v>
+        <v>0.47202409141936263</v>
       </c>
       <c r="D9">
-        <v>0.35127111453286131</v>
+        <v>0.32849871559948751</v>
       </c>
       <c r="E9">
-        <v>0.89651906501406109</v>
+        <v>0.88671388157372577</v>
       </c>
     </row>
     <row r="10">
@@ -1863,16 +1863,16 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>0.76272895271912244</v>
+        <v>0.72941299464206544</v>
       </c>
       <c r="C10">
-        <v>0.7117936217212274</v>
+        <v>0.67393034620805248</v>
       </c>
       <c r="D10">
-        <v>0.33088834881486806</v>
+        <v>0.31310874268859251</v>
       </c>
       <c r="E10">
-        <v>0.88779554608734645</v>
+        <v>0.87942149660198099</v>
       </c>
     </row>
     <row r="11">
@@ -1880,16 +1880,16 @@
         <v>106</v>
       </c>
       <c r="B11">
-        <v>0.79083360931839053</v>
+        <v>0.7555214115293436</v>
       </c>
       <c r="C11">
-        <v>0.74635828466019827</v>
+        <v>0.70509800240443421</v>
       </c>
       <c r="D11">
-        <v>0.3283942465983597</v>
+        <v>0.31079282300349548</v>
       </c>
       <c r="E11">
-        <v>0.88666629527227803</v>
+        <v>0.87827264543474437</v>
       </c>
     </row>
     <row r="12">
@@ -1897,16 +1897,16 @@
         <v>107</v>
       </c>
       <c r="B12">
-        <v>0.74898648072644181</v>
+        <v>0.71592779032245291</v>
       </c>
       <c r="C12">
-        <v>0.69562621214810938</v>
+        <v>0.659755437365384</v>
       </c>
       <c r="D12">
-        <v>0.33254915084140568</v>
+        <v>0.3142985261712421</v>
       </c>
       <c r="E12">
-        <v>0.88853967872568107</v>
+        <v>0.88000627761278505</v>
       </c>
     </row>
     <row r="13">
@@ -1914,16 +1914,16 @@
         <v>108</v>
       </c>
       <c r="B13">
-        <v>0.73765275982885248</v>
+        <v>0.68707030680333925</v>
       </c>
       <c r="C13">
-        <v>0.68385891674021859</v>
+        <v>0.62678762214784201</v>
       </c>
       <c r="D13">
-        <v>0.33440865992823343</v>
+        <v>0.31695771008770446</v>
       </c>
       <c r="E13">
-        <v>0.88936553045657074</v>
+        <v>0.88130015864456968</v>
       </c>
     </row>
     <row r="14">
@@ -1931,16 +1931,16 @@
         <v>109</v>
       </c>
       <c r="B14">
-        <v>0.77405707165228466</v>
+        <v>0.74111284797246979</v>
       </c>
       <c r="C14">
-        <v>0.72439603017699539</v>
+        <v>0.68819618466642296</v>
       </c>
       <c r="D14">
-        <v>0.32982355817976178</v>
+        <v>0.31204809528848637</v>
       </c>
       <c r="E14">
-        <v>0.8873151804133691</v>
+        <v>0.8788970884648748</v>
       </c>
     </row>
     <row r="15">
@@ -1948,16 +1948,16 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>0.7321382045732433</v>
+        <v>0.68861765846443657</v>
       </c>
       <c r="C15">
-        <v>0.6767540676300533</v>
+        <v>0.62798229627429736</v>
       </c>
       <c r="D15">
-        <v>0.33478932057131988</v>
+        <v>0.31689179019138158</v>
       </c>
       <c r="E15">
-        <v>0.88953364742748453</v>
+        <v>0.88126830081228347</v>
       </c>
     </row>
     <row r="16">
@@ -1965,16 +1965,16 @@
         <v>111</v>
       </c>
       <c r="B16">
-        <v>0.44061752009594934</v>
+        <v>0.44039033537765104</v>
       </c>
       <c r="C16">
-        <v>0.34975492578928696</v>
+        <v>0.35068942179869245</v>
       </c>
       <c r="D16">
-        <v>0.36286363371859487</v>
+        <v>0.33943492711405776</v>
       </c>
       <c r="E16">
-        <v>0.90111114928563685</v>
+        <v>0.89155996381164715</v>
       </c>
     </row>
     <row r="17">
@@ -1982,16 +1982,16 @@
         <v>112</v>
       </c>
       <c r="B17">
-        <v>0.47620613915187499</v>
+        <v>0.46516125289689464</v>
       </c>
       <c r="C17">
-        <v>0.38898181168285684</v>
+        <v>0.37744053680909989</v>
       </c>
       <c r="D17">
-        <v>0.35988615307866706</v>
+        <v>0.33712299320784628</v>
       </c>
       <c r="E17">
-        <v>0.89995551667692608</v>
+        <v>0.89055737468229412</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         <v>113</v>
       </c>
       <c r="B18">
-        <v>0.55467051167483483</v>
+        <v>0.5547657433496157</v>
       </c>
       <c r="C18">
-        <v>0.47558276939538946</v>
+        <v>0.47615009455247082</v>
       </c>
       <c r="D18">
-        <v>0.35284101886260411</v>
+        <v>0.32930500997207696</v>
       </c>
       <c r="E18">
-        <v>0.89715580056323885</v>
+        <v>0.88708030908991553</v>
       </c>
     </row>
     <row r="19">
@@ -2016,16 +2016,16 @@
         <v>114</v>
       </c>
       <c r="B19">
-        <v>0.52646442951524608</v>
+        <v>0.50651347460288754</v>
       </c>
       <c r="C19">
-        <v>0.44420698421811888</v>
+        <v>0.42256245024194994</v>
       </c>
       <c r="D19">
-        <v>0.35552601201254852</v>
+        <v>0.33320641973330223</v>
       </c>
       <c r="E19">
-        <v>0.89823382852846245</v>
+        <v>0.88883246494201507</v>
       </c>
     </row>
     <row r="20">
@@ -2033,16 +2033,16 @@
         <v>115</v>
       </c>
       <c r="B20">
-        <v>0.49350866726822967</v>
+        <v>0.49238339463829822</v>
       </c>
       <c r="C20">
-        <v>0.40812797146854823</v>
+        <v>0.40741265810670729</v>
       </c>
       <c r="D20">
-        <v>0.35838494836191814</v>
+        <v>0.33493932461821685</v>
       </c>
       <c r="E20">
-        <v>0.89936672332607048</v>
+        <v>0.8895998084666662</v>
       </c>
     </row>
     <row r="21">
@@ -2050,16 +2050,16 @@
         <v>116</v>
       </c>
       <c r="B21">
-        <v>0.64001003189013472</v>
+        <v>0.63608330714518779</v>
       </c>
       <c r="C21">
-        <v>0.57090761410195578</v>
+        <v>0.56675496613262022</v>
       </c>
       <c r="D21">
-        <v>0.34507033591622038</v>
+        <v>0.32179368951610843</v>
       </c>
       <c r="E21">
-        <v>0.8939566341337134</v>
+        <v>0.88360780369828562</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2081,7 @@
         <v>118</v>
       </c>
       <c r="B2">
-        <v>0.66211117647631301</v>
+        <v>0.65623927279165772</v>
       </c>
     </row>
     <row r="4">
@@ -2106,16 +2106,16 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>0.72440688132534969</v>
+        <v>0.72343446334671924</v>
       </c>
       <c r="C5">
-        <v>0.45125479042373434</v>
+        <v>0.45186009875595773</v>
       </c>
       <c r="D5">
-        <v>0.31803270388592036</v>
+        <v>0.30679225020535938</v>
       </c>
       <c r="E5">
-        <v>0.58316623964145087</v>
+        <v>0.57039265708229547</v>
       </c>
     </row>
     <row r="6">
@@ -2123,16 +2123,16 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>0.64920938872831568</v>
+        <v>0.6483559048496802</v>
       </c>
       <c r="C6">
-        <v>0.34990273077469564</v>
+        <v>0.34956194140277003</v>
       </c>
       <c r="D6">
-        <v>0.38755529935631444</v>
+        <v>0.37960635378077401</v>
       </c>
       <c r="E6">
-        <v>0.65498222979015974</v>
+        <v>0.64734585900123698</v>
       </c>
     </row>
     <row r="7">
@@ -2140,16 +2140,16 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>0.76412230331561881</v>
+        <v>0.74150754987620371</v>
       </c>
       <c r="C7">
-        <v>0.46341058296824783</v>
+        <v>0.45718989533615068</v>
       </c>
       <c r="D7">
-        <v>0.29898614071388335</v>
+        <v>0.298158036314709</v>
       </c>
       <c r="E7">
-        <v>0.56131037600992029</v>
+        <v>0.56033646737063059</v>
       </c>
     </row>
     <row r="8">
@@ -2157,16 +2157,16 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>0.74125341506934572</v>
+        <v>0.72253835183014314</v>
       </c>
       <c r="C8">
-        <v>0.46009249225466198</v>
+        <v>0.45330117956787463</v>
       </c>
       <c r="D8">
-        <v>0.30776620003126054</v>
+        <v>0.30698763860471773</v>
       </c>
       <c r="E8">
-        <v>0.57151351471381817</v>
+        <v>0.57061773424838258</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2188,7 @@
         <v>129</v>
       </c>
       <c r="B2">
-        <v>0.94879129730325307</v>
+        <v>0.9534737653335531</v>
       </c>
     </row>
     <row r="4">
@@ -2213,16 +2213,16 @@
         <v>135</v>
       </c>
       <c r="B5">
-        <v>0.93251077638388924</v>
+        <v>0.9400258716737856</v>
       </c>
       <c r="C5">
-        <v>0.87853374268790541</v>
+        <v>0.89202801180388513</v>
       </c>
       <c r="D5">
-        <v>0.82029816548400292</v>
+        <v>0.83224411654333985</v>
       </c>
       <c r="E5">
-        <v>0.93194649541525321</v>
+        <v>0.93704011097758799</v>
       </c>
     </row>
     <row r="6">
@@ -2230,16 +2230,16 @@
         <v>136</v>
       </c>
       <c r="B6">
-        <v>0.87021774315021971</v>
+        <v>0.88296490018819718</v>
       </c>
       <c r="C6">
-        <v>0.77377575858429226</v>
+        <v>0.79537574322487448</v>
       </c>
       <c r="D6">
-        <v>0.89889402367670834</v>
+        <v>0.90487469804358511</v>
       </c>
       <c r="E6">
-        <v>0.96386217447067379</v>
+        <v>0.96614456004906146</v>
       </c>
     </row>
     <row r="7">
@@ -2247,16 +2247,16 @@
         <v>137</v>
       </c>
       <c r="B7">
-        <v>0.96807253793751136</v>
+        <v>0.96712286367211653</v>
       </c>
       <c r="C7">
-        <v>0.94150521098901219</v>
+        <v>0.94006630972687655</v>
       </c>
       <c r="D7">
-        <v>0.77628584993049388</v>
+        <v>0.79860742705905385</v>
       </c>
       <c r="E7">
-        <v>0.91235734922482714</v>
+        <v>0.92245825461007924</v>
       </c>
     </row>
     <row r="8">
@@ -2264,16 +2264,16 @@
         <v>138</v>
       </c>
       <c r="B8">
-        <v>0.95472308681019069</v>
+        <v>0.95834418544591693</v>
       </c>
       <c r="C8">
-        <v>0.9170570109632542</v>
+        <v>0.92380541615946565</v>
       </c>
       <c r="D8">
-        <v>0.79430254063074579</v>
+        <v>0.81104528041326462</v>
       </c>
       <c r="E8">
-        <v>0.92053733462154352</v>
+        <v>0.9279373785140459</v>
       </c>
     </row>
   </sheetData>
